--- a/deployment/Omaha_Cal_Info_CE09OSSM_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSSM_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1056" yWindow="1476" windowWidth="12720" windowHeight="6912" tabRatio="766"/>
+    <workbookView xWindow="1050" yWindow="1470" windowWidth="12720" windowHeight="6915" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -402,9 +402,6 @@
     <t>CE09OSSM-RID27-04-DOSTAD000</t>
   </si>
   <si>
-    <t>CE09OSSM-MFD37-04-DOSTAD000</t>
-  </si>
-  <si>
     <t>CE09OSSM-RID27-07-NUTNRB000</t>
   </si>
   <si>
@@ -748,6 +745,9 @@
   </si>
   <si>
     <t>N00737</t>
+  </si>
+  <si>
+    <t>CE09OSSM-MFD37-03-DOSTAD000</t>
   </si>
 </sst>
 </file>
@@ -1691,32 +1691,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="18" customWidth="1"/>
     <col min="2" max="2" width="16" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.88671875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="18"/>
+    <col min="4" max="4" width="15.7109375" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="18" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" style="18" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="16" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -1752,15 +1752,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1775,16 +1775,16 @@
         <v>42272</v>
       </c>
       <c r="H2" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="J2" s="5">
         <v>542</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="24">
@@ -1796,22 +1796,22 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="26"/>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="26"/>
     </row>
-    <row r="6" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="26"/>
     </row>
-    <row r="7" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="26"/>
     </row>
-    <row r="8" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
     </row>
-    <row r="9" spans="1:14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
     </row>
   </sheetData>
@@ -1824,31 +1824,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I205"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9:E17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>2</v>
@@ -1872,7 +1872,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1880,91 +1880,91 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
       <c r="F7" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>5</v>
@@ -1974,24 +1974,24 @@
       </c>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>6</v>
@@ -2001,24 +2001,24 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>35</v>
@@ -2028,24 +2028,24 @@
       </c>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>36</v>
@@ -2055,24 +2055,24 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>37</v>
@@ -2082,24 +2082,24 @@
       </c>
       <c r="I13" s="22"/>
     </row>
-    <row r="14" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>38</v>
@@ -2109,24 +2109,24 @@
       </c>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>39</v>
@@ -2135,27 +2135,27 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>40</v>
@@ -2164,27 +2164,27 @@
         <v>1</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>41</v>
@@ -2193,57 +2193,57 @@
         <v>600</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G18" s="10"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G19" s="10"/>
       <c r="I19" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>5</v>
@@ -2252,24 +2252,24 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>6</v>
@@ -2278,27 +2278,27 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G23" s="10"/>
     </row>
-    <row r="24" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>5</v>
@@ -2307,24 +2307,24 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>6</v>
@@ -2333,25 +2333,25 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>5</v>
@@ -2360,24 +2360,24 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>6</v>
@@ -2386,27 +2386,27 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>14</v>
@@ -2415,24 +2415,24 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>16</v>
@@ -2441,24 +2441,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>15</v>
@@ -2467,24 +2467,24 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>17</v>
@@ -2493,24 +2493,24 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>19</v>
@@ -2519,24 +2519,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>18</v>
@@ -2545,24 +2545,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>100</v>
@@ -2574,27 +2574,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G37" s="10"/>
     </row>
-    <row r="38" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>14</v>
@@ -2603,24 +2603,24 @@
         <v>17533</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>16</v>
@@ -2629,24 +2629,24 @@
         <v>101</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>15</v>
@@ -2655,24 +2655,24 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>17</v>
@@ -2681,24 +2681,24 @@
         <v>38502</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>19</v>
@@ -2707,24 +2707,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>18</v>
@@ -2733,24 +2733,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D44" s="10">
         <v>1</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>100</v>
@@ -2762,79 +2762,79 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G45" s="10"/>
     </row>
-    <row r="46" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>42</v>
@@ -2843,209 +2843,209 @@
         <v>23.3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>103</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>104</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="6" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" s="6">
         <v>1</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>106</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G54" s="10"/>
     </row>
-    <row r="55" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>101</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>42</v>
@@ -3054,154 +3054,154 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>103</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>104</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>106</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G63" s="10"/>
     </row>
-    <row r="64" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F64" s="1">
         <v>1155</v>
@@ -3213,21 +3213,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F65" s="1">
         <v>1155</v>
@@ -3239,21 +3239,21 @@
         <v>1.84E-6</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F66" s="1">
         <v>1155</v>
@@ -3265,21 +3265,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F67" s="1">
         <v>1155</v>
@@ -3291,21 +3291,21 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F68" s="1">
         <v>1155</v>
@@ -3317,21 +3317,21 @@
         <v>46</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F69" s="1">
         <v>1155</v>
@@ -3343,21 +3343,21 @@
         <v>9.0300000000000005E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F70" s="1">
         <v>1155</v>
@@ -3372,21 +3372,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F71" s="1">
         <v>1155</v>
@@ -3401,21 +3401,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F72" s="1">
         <v>1155</v>
@@ -3430,21 +3430,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F73" s="1">
         <v>1155</v>
@@ -3459,27 +3459,27 @@
         <v>111</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G74" s="10"/>
     </row>
-    <row r="75" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>5</v>
@@ -3488,24 +3488,24 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D76" s="8">
         <v>1</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>6</v>
@@ -3514,24 +3514,24 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="77" spans="1:9" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D77" s="8">
         <v>1</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>76</v>
@@ -3540,24 +3540,24 @@
         <v>1.271243E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D78" s="8">
         <v>1</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>77</v>
@@ -3566,24 +3566,24 @@
         <v>2.7474180000000001E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D79" s="8">
         <v>1</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>78</v>
@@ -3592,24 +3592,24 @@
         <v>-1.5384759999999999E-6</v>
       </c>
     </row>
-    <row r="80" spans="1:9" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D80" s="8">
         <v>1</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>79</v>
@@ -3618,24 +3618,24 @@
         <v>1.962203E-7</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D81" s="8">
         <v>1</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>80</v>
@@ -3644,24 +3644,24 @@
         <v>-58.45279</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D82" s="8">
         <v>1</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>81</v>
@@ -3670,24 +3670,24 @@
         <v>53.847279999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D83" s="8">
         <v>1</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>82</v>
@@ -3696,24 +3696,24 @@
         <v>-0.54758289999999998</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D84" s="8">
         <v>1</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>83</v>
@@ -3722,24 +3722,24 @@
         <v>524685.69999999995</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D85" s="8">
         <v>1</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>84</v>
@@ -3748,24 +3748,24 @@
         <v>37.232759999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D86" s="8">
         <v>1</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>85</v>
@@ -3774,24 +3774,24 @@
         <v>-0.91068749999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D87" s="8">
         <v>1</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>86</v>
@@ -3800,24 +3800,24 @@
         <v>24.993870000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D88" s="8">
         <v>1</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>87</v>
@@ -3826,24 +3826,24 @@
         <v>-2.5000000000000001E-5</v>
       </c>
     </row>
-    <row r="89" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D89" s="8">
         <v>1</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>88</v>
@@ -3852,24 +3852,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D90" s="8">
         <v>1</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>89</v>
@@ -3878,24 +3878,24 @@
         <v>0.1858051</v>
       </c>
     </row>
-    <row r="91" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D91" s="8">
         <v>1</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>90</v>
@@ -3904,24 +3904,24 @@
         <v>4.8880889999999995E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D92" s="8">
         <v>1</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>91</v>
@@ -3930,24 +3930,24 @@
         <v>-6.2283480000000003E-12</v>
       </c>
     </row>
-    <row r="93" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D93" s="8">
         <v>1</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>92</v>
@@ -3956,24 +3956,24 @@
         <v>-0.98255250000000005</v>
       </c>
     </row>
-    <row r="94" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D94" s="8">
         <v>1</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>93</v>
@@ -3982,24 +3982,24 @@
         <v>0.1389213</v>
       </c>
     </row>
-    <row r="95" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D95" s="8">
         <v>1</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>94</v>
@@ -4008,24 +4008,24 @@
         <v>-2.5215239999999998E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D96" s="8">
         <v>1</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>95</v>
@@ -4034,24 +4034,24 @@
         <v>3.7572340000000002E-5</v>
       </c>
     </row>
-    <row r="97" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D97" s="8">
         <v>1</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>96</v>
@@ -4060,24 +4060,24 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" s="8" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D98" s="8">
         <v>1</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G98" s="10" t="s">
         <v>97</v>
@@ -4086,25 +4086,25 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="99" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>5</v>
@@ -4113,24 +4113,24 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>6</v>
@@ -4139,24 +4139,24 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="102" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D102" s="10">
         <v>1</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>76</v>
@@ -4165,24 +4165,24 @@
         <v>1.2886E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D103" s="10">
         <v>1</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>77</v>
@@ -4191,24 +4191,24 @@
         <v>2.6747309999999999E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D104" s="10">
         <v>1</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>78</v>
@@ -4217,24 +4217,24 @@
         <v>-5.8357599999999998E-7</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D105" s="10">
         <v>1</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>79</v>
@@ -4243,24 +4243,24 @@
         <v>1.5942049999999999E-7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D106" s="10">
         <v>1</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>80</v>
@@ -4269,24 +4269,24 @@
         <v>-63.97</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D107" s="10">
         <v>1</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>81</v>
@@ -4295,24 +4295,24 @@
         <v>53.352960000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D108" s="10">
         <v>1</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>82</v>
@@ -4321,24 +4321,24 @@
         <v>-0.60973619999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D109" s="10">
         <v>1</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>83</v>
@@ -4347,24 +4347,24 @@
         <v>524536.69999999995</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D110" s="10">
         <v>1</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>84</v>
@@ -4373,24 +4373,24 @@
         <v>-60.361229999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D111" s="10">
         <v>1</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>85</v>
@@ -4399,24 +4399,24 @@
         <v>0.93277659999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D112" s="10">
         <v>1</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>86</v>
@@ -4425,24 +4425,24 @@
         <v>24.888870000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D113" s="10">
         <v>1</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>87</v>
@@ -4451,24 +4451,24 @@
         <v>-6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D114" s="10">
         <v>1</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>88</v>
@@ -4477,24 +4477,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D115" s="10">
         <v>1</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>89</v>
@@ -4503,24 +4503,24 @@
         <v>-2.2917869999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D116" s="10">
         <v>1</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>90</v>
@@ -4529,24 +4529,24 @@
         <v>2.6512390000000001E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D117" s="10">
         <v>1</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>91</v>
@@ -4555,24 +4555,24 @@
         <v>1.57055E-11</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D118" s="10">
         <v>1</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>92</v>
@@ -4581,24 +4581,24 @@
         <v>-0.98847790000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D119" s="10">
         <v>1</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>93</v>
@@ -4607,24 +4607,24 @@
         <v>0.14048479999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D120" s="10">
         <v>1</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>94</v>
@@ -4633,24 +4633,24 @@
         <v>-5.8074639999999996E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D121" s="10">
         <v>1</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>95</v>
@@ -4659,24 +4659,24 @@
         <v>5.740902E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D122" s="10">
         <v>1</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>96</v>
@@ -4685,24 +4685,24 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D123" s="10">
         <v>1</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>97</v>
@@ -4711,24 +4711,24 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G124" s="10"/>
     </row>
-    <row r="125" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F125" s="1">
         <v>292</v>
@@ -4740,21 +4740,21 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F126" s="1">
         <v>292</v>
@@ -4766,21 +4766,21 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F127" s="1">
         <v>292</v>
@@ -4789,27 +4789,27 @@
         <v>11</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G128" s="10"/>
     </row>
-    <row r="129" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>123</v>
+        <v>232</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F129" s="1">
         <v>222</v>
@@ -4821,21 +4821,21 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>123</v>
+    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F130" s="1">
         <v>222</v>
@@ -4847,21 +4847,21 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>123</v>
+    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F131" s="1">
         <v>222</v>
@@ -4870,27 +4870,27 @@
         <v>11</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G132" s="10"/>
     </row>
-    <row r="133" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F133" s="1">
         <v>263</v>
@@ -4905,21 +4905,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F134" s="1">
         <v>263</v>
@@ -4934,21 +4934,21 @@
         <v>111</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F135" s="1">
         <v>263</v>
@@ -4960,21 +4960,21 @@
         <v>20</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F136" s="1">
         <v>263</v>
@@ -4983,24 +4983,24 @@
         <v>47</v>
       </c>
       <c r="H136" s="26" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F137" s="1">
         <v>263</v>
@@ -5009,24 +5009,24 @@
         <v>48</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F138" s="1">
         <v>263</v>
@@ -5035,24 +5035,24 @@
         <v>49</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F139" s="1">
         <v>263</v>
@@ -5061,102 +5061,102 @@
         <v>50</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D143" s="1">
         <v>1</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B145" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D145" s="10">
         <v>1</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F145" s="10">
         <v>17122</v>
@@ -5168,21 +5168,21 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B146" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D146" s="10">
         <v>1</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F146" s="10">
         <v>17122</v>
@@ -5194,21 +5194,21 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B147" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D147" s="10">
         <v>1</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F147" s="10">
         <v>17122</v>
@@ -5220,21 +5220,21 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B148" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D148" s="10">
         <v>1</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F148" s="10">
         <v>17122</v>
@@ -5246,21 +5246,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B149" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D149" s="10">
         <v>1</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F149" s="10">
         <v>17122</v>
@@ -5272,21 +5272,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B150" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D150" s="10">
         <v>1</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F150" s="10">
         <v>17122</v>
@@ -5298,21 +5298,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B151" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D151" s="10">
         <v>1</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F151" s="10">
         <v>17122</v>
@@ -5324,22 +5324,22 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="153" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D153" s="1">
         <v>1</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F153" s="1">
         <v>18978</v>
@@ -5351,21 +5351,21 @@
         <v>542000</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D154" s="1">
         <v>1</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F154" s="1">
         <v>18978</v>
@@ -5377,21 +5377,21 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D155" s="1">
         <v>1</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F155" s="1">
         <v>18978</v>
@@ -5403,21 +5403,21 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D156" s="1">
         <v>1</v>
       </c>
       <c r="E156" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F156" s="1">
         <v>18978</v>
@@ -5429,21 +5429,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F157" s="1">
         <v>18978</v>
@@ -5455,21 +5455,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D158" s="1">
         <v>1</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F158" s="1">
         <v>18978</v>
@@ -5481,21 +5481,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D159" s="1">
         <v>1</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F159" s="1">
         <v>18978</v>
@@ -5507,28 +5507,28 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
     </row>
-    <row r="161" spans="1:9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D161" s="10">
         <v>1</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F161" s="10">
         <v>11710</v>
@@ -5540,21 +5540,21 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="162" spans="1:9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D162" s="10">
         <v>1</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F162" s="10">
         <v>11710</v>
@@ -5566,28 +5566,28 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="163" spans="1:9" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B163" s="26"/>
       <c r="E163" s="26"/>
     </row>
-    <row r="164" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B164" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C164" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B164" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D164" s="1">
         <v>1</v>
       </c>
       <c r="E164" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F164" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F164" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>56</v>
@@ -5596,24 +5596,24 @@
         <v>-5916.308</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B165" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C165" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B165" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
       </c>
       <c r="E165" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F165" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F165" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>57</v>
@@ -5622,24 +5622,24 @@
         <v>195.72069999999999</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B166" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C166" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B166" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
       </c>
       <c r="E166" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F166" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F166" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>58</v>
@@ -5648,24 +5648,24 @@
         <v>16601.59</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B167" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B167" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
       </c>
       <c r="E167" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F167" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F167" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>59</v>
@@ -5674,24 +5674,24 @@
         <v>6.8552000000000002E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B168" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B168" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D168" s="1">
         <v>1</v>
       </c>
       <c r="E168" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F168" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F168" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>60</v>
@@ -5700,24 +5700,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B169" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B169" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
       </c>
       <c r="E169" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F169" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F169" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>54</v>
@@ -5729,24 +5729,24 @@
         <v>111</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B170" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B170" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
       </c>
       <c r="E170" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F170" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F170" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>61</v>
@@ -5755,24 +5755,24 @@
         <v>-0.40789999999999998</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B171" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B171" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
       </c>
       <c r="E171" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F171" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F171" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>55</v>
@@ -5784,24 +5784,24 @@
         <v>111</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B172" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C172" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B172" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
       </c>
       <c r="E172" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F172" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F172" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>62</v>
@@ -5810,24 +5810,24 @@
         <v>30.066870000000002</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B173" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B173" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
       </c>
       <c r="E173" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F173" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F173" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>63</v>
@@ -5836,24 +5836,24 @@
         <v>0.96473500000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B174" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B174" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
       </c>
       <c r="E174" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F174" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F174" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>64</v>
@@ -5862,24 +5862,24 @@
         <v>43.283189999999998</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B175" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B175" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
       </c>
       <c r="E175" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F175" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F175" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>65</v>
@@ -5888,24 +5888,24 @@
         <v>92.590029999999999</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B176" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C176" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B176" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D176" s="1">
         <v>1</v>
       </c>
       <c r="E176" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F176" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F176" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>66</v>
@@ -5914,24 +5914,24 @@
         <v>5.8215640000000004</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B177" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C177" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B177" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
       </c>
       <c r="E177" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F177" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F177" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>67</v>
@@ -5940,24 +5940,24 @@
         <v>-3880.3739999999998</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B178" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B178" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D178" s="1">
         <v>1</v>
       </c>
       <c r="E178" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F178" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F178" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>68</v>
@@ -5966,24 +5966,24 @@
         <v>-9063.1530000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B179" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="B179" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="D179" s="1">
         <v>1</v>
       </c>
       <c r="E179" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F179" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F179" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>69</v>
@@ -5992,24 +5992,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B180" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C180" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B180" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C180" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="D180" s="10">
         <v>1</v>
       </c>
       <c r="E180" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F180" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F180" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>98</v>
@@ -6018,24 +6018,24 @@
         <v>838.8</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B181" s="26" t="s">
+        <v>203</v>
+      </c>
+      <c r="C181" s="10" t="s">
         <v>142</v>
-      </c>
-      <c r="B181" s="26" t="s">
-        <v>204</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>143</v>
       </c>
       <c r="D181" s="10">
         <v>1</v>
       </c>
       <c r="E181" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="F181" s="30" t="s">
         <v>226</v>
-      </c>
-      <c r="F181" s="30" t="s">
-        <v>227</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>99</v>
@@ -6044,24 +6044,24 @@
         <v>12582.9</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>70</v>
@@ -6070,24 +6070,24 @@
         <v>7.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>71</v>
@@ -6096,24 +6096,24 @@
         <v>0.73519999999999996</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D185" s="1">
         <v>1</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>72</v>
@@ -6122,24 +6122,24 @@
         <v>-1.5599000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D186" s="1">
         <v>1</v>
       </c>
       <c r="E186" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>73</v>
@@ -6148,24 +6148,24 @@
         <v>14.6</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
       </c>
       <c r="E187" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>14</v>
@@ -6174,24 +6174,24 @@
         <v>19706</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D188" s="1">
         <v>1</v>
       </c>
       <c r="E188" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>74</v>
@@ -6200,24 +6200,24 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>15</v>
@@ -6226,24 +6226,24 @@
         <v>3073</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
       </c>
       <c r="E190" s="26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>75</v>
@@ -6252,236 +6252,236 @@
         <v>44327</v>
       </c>
     </row>
-    <row r="192" spans="1:9" s="10" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D192" s="10">
         <v>1</v>
       </c>
       <c r="E192" s="26" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I192" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="194" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="196" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
       </c>
       <c r="F197" s="22" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I197" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D198" s="1">
         <v>1</v>
       </c>
       <c r="F198" s="22" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I198" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F199" s="22"/>
       <c r="I199" s="22"/>
     </row>
-    <row r="200" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
       </c>
       <c r="F200" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I200" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D201" s="1">
         <v>1</v>
       </c>
       <c r="F201" s="22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I201" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
       </c>
       <c r="F202" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I202" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
       </c>
       <c r="F203" s="22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I203" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
       </c>
       <c r="F204" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="I204" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="14.4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
       </c>
       <c r="F205" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I205" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6501,14 +6501,14 @@
       <selection activeCell="C10" sqref="A1:AM80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>-3.0170000000000002E-3</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>1.9599999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>-2.6199999999999999E-3</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>9.59E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1.08E-3</v>
       </c>
@@ -6865,7 +6865,7 @@
         <v>-5.1060000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>5.2709999999999996E-3</v>
       </c>
@@ -6984,7 +6984,7 @@
         <v>-8.9440000000000006E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>8.0079999999999995E-3</v>
       </c>
@@ -7103,7 +7103,7 @@
         <v>-1.0677000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>9.8279999999999999E-3</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>-1.0921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>1.0015E-2</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>-1.1219E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>-1.0883E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>6.6360000000000004E-3</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>-8.6560000000000005E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>6.4409999999999997E-3</v>
       </c>
@@ -7698,7 +7698,7 @@
         <v>-8.7069999999999995E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>5.836E-3</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>-8.1600000000000006E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>4.4489999999999998E-3</v>
       </c>
@@ -7936,7 +7936,7 @@
         <v>-7.0600000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3.0730000000000002E-3</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>-6.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>2.7160000000000001E-3</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>-5.0679999999999996E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>2.5219999999999999E-3</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>-4.8349999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>1.5009999999999999E-3</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>-4.0229999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>1.4920000000000001E-3</v>
       </c>
@@ -8531,7 +8531,7 @@
         <v>-3.408E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>6.1899999999999998E-4</v>
       </c>
@@ -8650,7 +8650,7 @@
         <v>-3.042E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>3.2200000000000002E-4</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>-2.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>-1.03E-4</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>-2.0019999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>-3.6400000000000001E-4</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>-1.7129999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>-1.263E-3</v>
       </c>
@@ -9126,7 +9126,7 @@
         <v>-1.1460000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>-1.1069999999999999E-3</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>-1.511E-3</v>
       </c>
@@ -9364,7 +9364,7 @@
         <v>-4.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>-1.779E-3</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>-2.8400000000000002E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>-2.019E-3</v>
       </c>
@@ -9602,7 +9602,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>-2.3530000000000001E-3</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>1.76E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>-2.8389999999999999E-3</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>3.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>-2.944E-3</v>
       </c>
@@ -9959,7 +9959,7 @@
         <v>5.2999999999999998E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>-3.2469999999999999E-3</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>-3.5969999999999999E-3</v>
       </c>
@@ -10197,7 +10197,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>-3.6319999999999998E-3</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>1.049E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>-3.9300000000000003E-3</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>1.078E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>-3.986E-3</v>
       </c>
@@ -10554,7 +10554,7 @@
         <v>1.2489999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>-3.8379999999999998E-3</v>
       </c>
@@ -10673,7 +10673,7 @@
         <v>1.2800000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>-3.6819999999999999E-3</v>
       </c>
@@ -10792,7 +10792,7 @@
         <v>1.2539999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>-3.4459999999999998E-3</v>
       </c>
@@ -10911,7 +10911,7 @@
         <v>1.1230000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>-3.3830000000000002E-3</v>
       </c>
@@ -11030,7 +11030,7 @@
         <v>1.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>-3.4870000000000001E-3</v>
       </c>
@@ -11149,7 +11149,7 @@
         <v>9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>-3.5230000000000001E-3</v>
       </c>
@@ -11268,7 +11268,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>-3.5400000000000002E-3</v>
       </c>
@@ -11387,7 +11387,7 @@
         <v>4.4099999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>-3.5260000000000001E-3</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>-3.1700000000000001E-3</v>
       </c>
@@ -11625,7 +11625,7 @@
         <v>-6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>-3.026E-3</v>
       </c>
@@ -11744,7 +11744,7 @@
         <v>-3.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>-3.4710000000000001E-3</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>-6.8900000000000005E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>-3.5869999999999999E-3</v>
       </c>
@@ -11982,7 +11982,7 @@
         <v>-5.4100000000000003E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>-3.6579999999999998E-3</v>
       </c>
@@ -12101,7 +12101,7 @@
         <v>-5.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>-3.722E-3</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>-4.5300000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>-3.8739999999999998E-3</v>
       </c>
@@ -12339,7 +12339,7 @@
         <v>-3.77E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>-3.9579999999999997E-3</v>
       </c>
@@ -12458,7 +12458,7 @@
         <v>-2.6499999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>-4.1960000000000001E-3</v>
       </c>
@@ -12577,7 +12577,7 @@
         <v>-2.3800000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>-4.326E-3</v>
       </c>
@@ -12696,7 +12696,7 @@
         <v>-1.8699999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>-4.3759999999999997E-3</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>-1.4899999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>-4.568E-3</v>
       </c>
@@ -12934,7 +12934,7 @@
         <v>-1.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>-4.7999999999999996E-3</v>
       </c>
@@ -13053,7 +13053,7 @@
         <v>-6.8999999999999997E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>-4.9020000000000001E-3</v>
       </c>
@@ -13172,7 +13172,7 @@
         <v>-3.4E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>-5.0000000000000001E-3</v>
       </c>
@@ -13291,7 +13291,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>-5.2339999999999999E-3</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>-5.4559999999999999E-3</v>
       </c>
@@ -13529,7 +13529,7 @@
         <v>1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>-5.6379999999999998E-3</v>
       </c>
@@ -13648,7 +13648,7 @@
         <v>2.5599999999999999E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>-5.8609999999999999E-3</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>3.2899999999999997E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>-6.1349999999999998E-3</v>
       </c>
@@ -13886,7 +13886,7 @@
         <v>3.7500000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>-6.4689999999999999E-3</v>
       </c>
@@ -14005,7 +14005,7 @@
         <v>4.9200000000000003E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>-6.6519999999999999E-3</v>
       </c>
@@ -14124,7 +14124,7 @@
         <v>5.13E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>-6.7099999999999998E-3</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>5.2800000000000004E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>-6.6109999999999997E-3</v>
       </c>
@@ -14362,7 +14362,7 @@
         <v>5.2400000000000005E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>-6.3990000000000002E-3</v>
       </c>
@@ -14481,7 +14481,7 @@
         <v>4.86E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>-6.221E-3</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>-6.0130000000000001E-3</v>
       </c>
@@ -14719,7 +14719,7 @@
         <v>4.08E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>-5.9649999999999998E-3</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>-5.7219999999999997E-3</v>
       </c>
@@ -14957,7 +14957,7 @@
         <v>1.21E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>-5.3639999999999998E-3</v>
       </c>
@@ -15076,7 +15076,7 @@
         <v>-2.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>-5.1729999999999996E-3</v>
       </c>
@@ -15195,7 +15195,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>-5.2779999999999997E-3</v>
       </c>
@@ -15314,7 +15314,7 @@
         <v>-2.33E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>-5.5690000000000002E-3</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>-3.4699999999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>-6.0959999999999999E-3</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>-4.1800000000000002E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>-6.2989999999999999E-3</v>
       </c>
@@ -15671,7 +15671,7 @@
         <v>-3.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
         <v>-6.6340000000000001E-3</v>
       </c>
@@ -15790,7 +15790,7 @@
         <v>-5.0799999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>-7.0619999999999997E-3</v>
       </c>
@@ -15909,7 +15909,7 @@
         <v>-4.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>-6.5680000000000001E-3</v>
       </c>
@@ -16028,16 +16028,16 @@
         <v>-4.5100000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="9"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="9"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="9"/>
     </row>
   </sheetData>
@@ -16053,15 +16053,15 @@
       <selection activeCell="AA65" sqref="A1:AM80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="25">
         <v>1.1096E-2</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>-7.0870000000000004E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1.9990000000000001E-2</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>-5.2059999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>1.8069000000000002E-2</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>-4.4130000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>1.5543E-2</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>-3.1679999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>1.5062000000000001E-2</v>
       </c>
@@ -16656,7 +16656,7 @@
         <v>-2.2780000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>1.3579000000000001E-2</v>
       </c>
@@ -16775,7 +16775,7 @@
         <v>-1.792E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>1.1405999999999999E-2</v>
       </c>
@@ -16894,7 +16894,7 @@
         <v>-1.2329999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>1.0219000000000001E-2</v>
       </c>
@@ -17013,7 +17013,7 @@
         <v>-1.3810000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>1.0685999999999999E-2</v>
       </c>
@@ -17132,7 +17132,7 @@
         <v>-1.951E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>1.0251E-2</v>
       </c>
@@ -17251,7 +17251,7 @@
         <v>-1.859E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>9.4439999999999993E-3</v>
       </c>
@@ -17370,7 +17370,7 @@
         <v>-7.9799999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>8.8450000000000004E-3</v>
       </c>
@@ -17489,7 +17489,7 @@
         <v>-6.3900000000000003E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>9.11E-3</v>
       </c>
@@ -17608,7 +17608,7 @@
         <v>-1.0269999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>9.3200000000000002E-3</v>
       </c>
@@ -17727,7 +17727,7 @@
         <v>-6.69E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>8.7039999999999999E-3</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>-1.26E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>8.9110000000000005E-3</v>
       </c>
@@ -17965,7 +17965,7 @@
         <v>5.8299999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>7.953E-3</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>9.7330000000000003E-3</v>
       </c>
@@ -18203,7 +18203,7 @@
         <v>2.0100000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
         <v>1.0602E-2</v>
       </c>
@@ -18322,7 +18322,7 @@
         <v>1.2300000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>9.8809999999999992E-3</v>
       </c>
@@ -18441,7 +18441,7 @@
         <v>7.3800000000000005E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>1.0196999999999999E-2</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>9.9019999999999993E-3</v>
       </c>
@@ -18679,7 +18679,7 @@
         <v>1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
         <v>1.0081E-2</v>
       </c>
@@ -18798,7 +18798,7 @@
         <v>7.9699999999999997E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>1.1207999999999999E-2</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>1.0865E-2</v>
       </c>
@@ -19036,7 +19036,7 @@
         <v>1.209E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>9.8289999999999992E-3</v>
       </c>
@@ -19155,7 +19155,7 @@
         <v>2.0600000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>9.6480000000000003E-3</v>
       </c>
@@ -19274,7 +19274,7 @@
         <v>2.2420000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>9.7619999999999998E-3</v>
       </c>
@@ -19393,7 +19393,7 @@
         <v>1.5870000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
         <v>1.0779E-2</v>
       </c>
@@ -19512,7 +19512,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>1.125E-2</v>
       </c>
@@ -19631,7 +19631,7 @@
         <v>6.87E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="25">
         <v>1.0626E-2</v>
       </c>
@@ -19750,7 +19750,7 @@
         <v>1.549E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>1.0435E-2</v>
       </c>
@@ -19869,7 +19869,7 @@
         <v>2.2690000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>9.7730000000000004E-3</v>
       </c>
@@ -19988,7 +19988,7 @@
         <v>2.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>1.009E-2</v>
       </c>
@@ -20107,7 +20107,7 @@
         <v>1.271E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>1.1586000000000001E-2</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>1.2154999999999999E-2</v>
       </c>
@@ -20345,7 +20345,7 @@
         <v>-1.2300000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>1.2125E-2</v>
       </c>
@@ -20464,7 +20464,7 @@
         <v>9.7999999999999997E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>1.2177E-2</v>
       </c>
@@ -20583,7 +20583,7 @@
         <v>7.94E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>1.1487000000000001E-2</v>
       </c>
@@ -20702,7 +20702,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>1.2144E-2</v>
       </c>
@@ -20821,7 +20821,7 @@
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>1.3206000000000001E-2</v>
       </c>
@@ -20940,7 +20940,7 @@
         <v>-8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>1.4567E-2</v>
       </c>
@@ -21059,7 +21059,7 @@
         <v>-2.1749999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>1.5851000000000001E-2</v>
       </c>
@@ -21178,7 +21178,7 @@
         <v>-3.0730000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>1.6566000000000001E-2</v>
       </c>
@@ -21297,7 +21297,7 @@
         <v>-3.055E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>1.2205000000000001E-2</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>-1.9849999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>1.1498E-2</v>
       </c>
@@ -21535,7 +21535,7 @@
         <v>-1.047E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>1.0806E-2</v>
       </c>
@@ -21654,7 +21654,7 @@
         <v>-5.2099999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>1.0401000000000001E-2</v>
       </c>
@@ -21773,7 +21773,7 @@
         <v>-7.36E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>1.0942E-2</v>
       </c>
@@ -21892,7 +21892,7 @@
         <v>-1.6639999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>1.1664000000000001E-2</v>
       </c>
@@ -22011,7 +22011,7 @@
         <v>-2.627E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>1.2312999999999999E-2</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>-3.1719999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>1.2456999999999999E-2</v>
       </c>
@@ -22249,7 +22249,7 @@
         <v>-2.9260000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>1.2045999999999999E-2</v>
       </c>
@@ -22368,7 +22368,7 @@
         <v>-2.2109999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>1.0963000000000001E-2</v>
       </c>
@@ -22487,7 +22487,7 @@
         <v>-1.176E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>1.0317E-2</v>
       </c>
@@ -22606,7 +22606,7 @@
         <v>-4.9700000000000005E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>9.8410000000000008E-3</v>
       </c>
@@ -22725,7 +22725,7 @@
         <v>-4.4099999999999999E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>9.8060000000000005E-3</v>
       </c>
@@ -22844,7 +22844,7 @@
         <v>-1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>1.0303E-2</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>-1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>1.0918000000000001E-2</v>
       </c>
@@ -23082,7 +23082,7 @@
         <v>-2.8029999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>1.1409000000000001E-2</v>
       </c>
@@ -23201,7 +23201,7 @@
         <v>-3.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>1.1468000000000001E-2</v>
       </c>
@@ -23320,7 +23320,7 @@
         <v>-3.1159999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>1.1023E-2</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>-2.4650000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>1.0685E-2</v>
       </c>
@@ -23558,7 +23558,7 @@
         <v>-1.5579999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>9.8490000000000001E-3</v>
       </c>
@@ -23677,7 +23677,7 @@
         <v>-7.9699999999999997E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>9.3880000000000005E-3</v>
       </c>
@@ -23796,7 +23796,7 @@
         <v>-2.7099999999999997E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>9.1420000000000008E-3</v>
       </c>
@@ -23915,7 +23915,7 @@
         <v>-3.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>9.5250000000000005E-3</v>
       </c>
@@ -24034,7 +24034,7 @@
         <v>-1.0039999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>1.0286E-2</v>
       </c>
@@ -24153,7 +24153,7 @@
         <v>-1.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
         <v>1.1141E-2</v>
       </c>
@@ -24272,7 +24272,7 @@
         <v>-2.996E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>1.2522E-2</v>
       </c>
@@ -24391,7 +24391,7 @@
         <v>-3.9329999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>1.3295E-2</v>
       </c>
@@ -24510,7 +24510,7 @@
         <v>-4.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>1.3893000000000001E-2</v>
       </c>
@@ -24629,7 +24629,7 @@
         <v>-4.9319999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>1.4447E-2</v>
       </c>
@@ -24748,7 +24748,7 @@
         <v>-4.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>1.4303E-2</v>
       </c>
@@ -24867,7 +24867,7 @@
         <v>-4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>1.4043999999999999E-2</v>
       </c>
@@ -24986,7 +24986,7 @@
         <v>-3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>1.3542E-2</v>
       </c>
@@ -25105,7 +25105,7 @@
         <v>-3.2629999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>1.2692E-2</v>
       </c>
@@ -25224,7 +25224,7 @@
         <v>-2.8670000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
         <v>1.2685999999999999E-2</v>
       </c>
@@ -25343,7 +25343,7 @@
         <v>-2.7139999999999998E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>1.2317E-2</v>
       </c>
@@ -25462,7 +25462,7 @@
         <v>-2.5370000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
         <v>1.1916E-2</v>
       </c>
@@ -25581,13 +25581,13 @@
         <v>-2.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="7"/>
     </row>
   </sheetData>
@@ -25603,9 +25603,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>-1.217E-3</v>
       </c>
@@ -25721,7 +25721,7 @@
         <v>5.9250999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>-1.6122999999999998E-2</v>
       </c>
@@ -25837,7 +25837,7 @@
         <v>5.2925E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>-2.96E-3</v>
       </c>
@@ -25953,7 +25953,7 @@
         <v>3.1683999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.1277999999999998E-2</v>
       </c>
@@ -26069,7 +26069,7 @@
         <v>1.0460000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.9567999999999999E-2</v>
       </c>
@@ -26185,7 +26185,7 @@
         <v>-6.4720000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5.2198000000000001E-2</v>
       </c>
@@ -26301,7 +26301,7 @@
         <v>-1.9453000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6.0463000000000003E-2</v>
       </c>
@@ -26417,7 +26417,7 @@
         <v>-2.5121999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5.9880999999999997E-2</v>
       </c>
@@ -26533,7 +26533,7 @@
         <v>-2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5.8949000000000001E-2</v>
       </c>
@@ -26649,7 +26649,7 @@
         <v>-2.793E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.6152000000000001E-2</v>
       </c>
@@ -26765,7 +26765,7 @@
         <v>-2.6713000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.1274E-2</v>
       </c>
@@ -26881,7 +26881,7 @@
         <v>-2.5260000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.9993000000000003E-2</v>
       </c>
@@ -26997,7 +26997,7 @@
         <v>-2.4146000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4.6747999999999998E-2</v>
       </c>
@@ -27113,7 +27113,7 @@
         <v>-2.2589000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.5406000000000002E-2</v>
       </c>
@@ -27229,7 +27229,7 @@
         <v>-2.1475000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4.4385000000000001E-2</v>
       </c>
@@ -27345,7 +27345,7 @@
         <v>-2.0431999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>4.2183999999999999E-2</v>
       </c>
@@ -27461,7 +27461,7 @@
         <v>-1.9682999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4.0542000000000002E-2</v>
       </c>
@@ -27577,7 +27577,7 @@
         <v>-1.8891000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.959E-2</v>
       </c>
@@ -27693,7 +27693,7 @@
         <v>-1.8186999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.7962000000000003E-2</v>
       </c>
@@ -27809,7 +27809,7 @@
         <v>-1.7673999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.7345000000000003E-2</v>
       </c>
@@ -27925,7 +27925,7 @@
         <v>-1.7127E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.5869999999999999E-2</v>
       </c>
@@ -28041,7 +28041,7 @@
         <v>-1.6677000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3.5033000000000002E-2</v>
       </c>
@@ -28157,7 +28157,7 @@
         <v>-1.6188000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.3671E-2</v>
       </c>
@@ -28273,7 +28273,7 @@
         <v>-1.5469E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.3402000000000001E-2</v>
       </c>
@@ -28389,7 +28389,7 @@
         <v>-1.524E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.2177999999999998E-2</v>
       </c>
@@ -28505,7 +28505,7 @@
         <v>-1.4589E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3.1132E-2</v>
       </c>
@@ -28621,7 +28621,7 @@
         <v>-1.3883E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.0834E-2</v>
       </c>
@@ -28737,7 +28737,7 @@
         <v>-1.3186E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2.9805000000000002E-2</v>
       </c>
@@ -28853,7 +28853,7 @@
         <v>-1.2496E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2.9288000000000002E-2</v>
       </c>
@@ -28969,7 +28969,7 @@
         <v>-1.1686E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2.8648E-2</v>
       </c>
@@ -29085,7 +29085,7 @@
         <v>-1.0984000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2.7969999999999998E-2</v>
       </c>
@@ -29201,7 +29201,7 @@
         <v>-1.0167000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2.7269000000000002E-2</v>
       </c>
@@ -29317,7 +29317,7 @@
         <v>-9.4359999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2.6849999999999999E-2</v>
       </c>
@@ -29433,7 +29433,7 @@
         <v>-8.6689999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2.6512000000000001E-2</v>
       </c>
@@ -29549,7 +29549,7 @@
         <v>-8.201E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2.5888999999999999E-2</v>
       </c>
@@ -29665,7 +29665,7 @@
         <v>-7.5820000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2.5593000000000001E-2</v>
       </c>
@@ -29781,7 +29781,7 @@
         <v>-7.1459999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -29897,7 +29897,7 @@
         <v>-6.8199999999999997E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2.4955999999999999E-2</v>
       </c>
@@ -30013,7 +30013,7 @@
         <v>-6.5339999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2.4978E-2</v>
       </c>
@@ -30129,7 +30129,7 @@
         <v>-6.4850000000000003E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2.4989000000000001E-2</v>
       </c>
@@ -30245,7 +30245,7 @@
         <v>-6.3990000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2.4895E-2</v>
       </c>
@@ -30361,7 +30361,7 @@
         <v>-6.4419999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2.4344000000000001E-2</v>
       </c>
@@ -30477,7 +30477,7 @@
         <v>-6.489E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2.2498000000000001E-2</v>
       </c>
@@ -30593,7 +30593,7 @@
         <v>-8.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2.2270000000000002E-2</v>
       </c>
@@ -30709,7 +30709,7 @@
         <v>-7.9749999999999995E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2.1975999999999999E-2</v>
       </c>
@@ -30825,7 +30825,7 @@
         <v>-7.6290000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2.1724E-2</v>
       </c>
@@ -30941,7 +30941,7 @@
         <v>-7.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2.1316000000000002E-2</v>
       </c>
@@ -31057,7 +31057,7 @@
         <v>-6.9160000000000003E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2.0830999999999999E-2</v>
       </c>
@@ -31173,7 +31173,7 @@
         <v>-6.5890000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2.0586E-2</v>
       </c>
@@ -31289,7 +31289,7 @@
         <v>-6.0029999999999997E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2.0147000000000002E-2</v>
       </c>
@@ -31405,7 +31405,7 @@
         <v>-5.8780000000000004E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1.9605999999999998E-2</v>
       </c>
@@ -31521,7 +31521,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1.9136E-2</v>
       </c>
@@ -31637,7 +31637,7 @@
         <v>-5.2030000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1.8865E-2</v>
       </c>
@@ -31753,7 +31753,7 @@
         <v>-5.1460000000000004E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1.8439000000000001E-2</v>
       </c>
@@ -31869,7 +31869,7 @@
         <v>-5.0990000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1.8269000000000001E-2</v>
       </c>
@@ -31985,7 +31985,7 @@
         <v>-5.0689999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1.8076999999999999E-2</v>
       </c>
@@ -32101,7 +32101,7 @@
         <v>-5.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1.7874000000000001E-2</v>
       </c>
@@ -32217,7 +32217,7 @@
         <v>-5.2430000000000003E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1.7760999999999999E-2</v>
       </c>
@@ -32333,7 +32333,7 @@
         <v>-5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1.7892000000000002E-2</v>
       </c>
@@ -32449,7 +32449,7 @@
         <v>-5.535E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1.7656999999999999E-2</v>
       </c>
@@ -32565,7 +32565,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1.7566999999999999E-2</v>
       </c>
@@ -32681,7 +32681,7 @@
         <v>-5.4289999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1.7226000000000002E-2</v>
       </c>
@@ -32797,7 +32797,7 @@
         <v>-5.6109999999999997E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1.7124E-2</v>
       </c>
@@ -32913,7 +32913,7 @@
         <v>-5.5909999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1.7017000000000001E-2</v>
       </c>
@@ -33029,7 +33029,7 @@
         <v>-5.7629999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1.6993000000000001E-2</v>
       </c>
@@ -33145,7 +33145,7 @@
         <v>-5.7260000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1.6854000000000001E-2</v>
       </c>
@@ -33261,7 +33261,7 @@
         <v>-5.7409999999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1.6847000000000001E-2</v>
       </c>
@@ -33377,7 +33377,7 @@
         <v>-5.6940000000000003E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1.6865000000000002E-2</v>
       </c>
@@ -33493,7 +33493,7 @@
         <v>-5.6690000000000004E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1.6999E-2</v>
       </c>
@@ -33609,7 +33609,7 @@
         <v>-5.5180000000000003E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1.6573000000000001E-2</v>
       </c>
@@ -33725,7 +33725,7 @@
         <v>-5.3369999999999997E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1.6441000000000001E-2</v>
       </c>
@@ -33841,7 +33841,7 @@
         <v>-5.1720000000000004E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.6501999999999999E-2</v>
       </c>
@@ -33957,7 +33957,7 @@
         <v>-4.9969999999999997E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.6566000000000001E-2</v>
       </c>
@@ -34073,7 +34073,7 @@
         <v>-4.8919999999999996E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1.6815E-2</v>
       </c>
@@ -34189,7 +34189,7 @@
         <v>-4.679E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1.6834999999999999E-2</v>
       </c>
@@ -34305,7 +34305,7 @@
         <v>-4.4840000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1.6635E-2</v>
       </c>
@@ -34421,7 +34421,7 @@
         <v>-4.2709999999999996E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1.6372999999999999E-2</v>
       </c>
@@ -34537,7 +34537,7 @@
         <v>-4.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1.6570999999999999E-2</v>
       </c>
@@ -34653,7 +34653,7 @@
         <v>-4.0020000000000003E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1.6389000000000001E-2</v>
       </c>
@@ -34769,7 +34769,7 @@
         <v>-3.8790000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1.6128E-2</v>
       </c>
@@ -34885,7 +34885,7 @@
         <v>-3.8040000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.6001999999999999E-2</v>
       </c>
@@ -35001,7 +35001,7 @@
         <v>-3.7650000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.6177E-2</v>
       </c>
@@ -35117,7 +35117,7 @@
         <v>-3.8379999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.6069E-2</v>
       </c>
@@ -35233,7 +35233,7 @@
         <v>-3.836E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1.6045E-2</v>
       </c>
@@ -35349,7 +35349,7 @@
         <v>-4.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1.6611000000000001E-2</v>
       </c>
@@ -35478,9 +35478,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>4.4850000000000001E-2</v>
       </c>
@@ -35596,7 +35596,7 @@
         <v>-4.3519000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3.9183999999999997E-2</v>
       </c>
@@ -35712,7 +35712,7 @@
         <v>-3.7317000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.9572999999999999E-2</v>
       </c>
@@ -35828,7 +35828,7 @@
         <v>-3.3651E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.9889E-2</v>
       </c>
@@ -35944,7 +35944,7 @@
         <v>-3.2308000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.8782E-2</v>
       </c>
@@ -36060,7 +36060,7 @@
         <v>-3.0528E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.336E-2</v>
       </c>
@@ -36176,7 +36176,7 @@
         <v>-2.7786000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>8.3269999999999993E-3</v>
       </c>
@@ -36292,7 +36292,7 @@
         <v>-2.5936000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>8.2279999999999992E-3</v>
       </c>
@@ -36408,7 +36408,7 @@
         <v>-2.4084999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7.0349999999999996E-3</v>
       </c>
@@ -36524,7 +36524,7 @@
         <v>-2.2527999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5.7910000000000001E-3</v>
       </c>
@@ -36640,7 +36640,7 @@
         <v>-2.2658999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5.5459999999999997E-3</v>
       </c>
@@ -36756,7 +36756,7 @@
         <v>-2.1316000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4.3299999999999996E-3</v>
       </c>
@@ -36872,7 +36872,7 @@
         <v>-2.027E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3.1689999999999999E-3</v>
       </c>
@@ -36988,7 +36988,7 @@
         <v>-1.9577000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>4.045E-3</v>
       </c>
@@ -37104,7 +37104,7 @@
         <v>-1.7666000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.2620000000000001E-3</v>
       </c>
@@ -37220,7 +37220,7 @@
         <v>-1.7545000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>9.5799999999999998E-4</v>
       </c>
@@ -37336,7 +37336,7 @@
         <v>-1.6750999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>-3.8099999999999999E-4</v>
       </c>
@@ -37452,7 +37452,7 @@
         <v>-1.5461000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>-2.052E-3</v>
       </c>
@@ -37568,7 +37568,7 @@
         <v>-1.5084E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>-2.333E-3</v>
       </c>
@@ -37684,7 +37684,7 @@
         <v>-1.4002000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>-3.1670000000000001E-3</v>
       </c>
@@ -37800,7 +37800,7 @@
         <v>-1.2987E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>-4.2989999999999999E-3</v>
       </c>
@@ -37916,7 +37916,7 @@
         <v>-1.2781000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>-2.7460000000000002E-3</v>
       </c>
@@ -38032,7 +38032,7 @@
         <v>-1.1978000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>-4.0660000000000002E-3</v>
       </c>
@@ -38148,7 +38148,7 @@
         <v>-1.1528999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>-3.4299999999999999E-3</v>
       </c>
@@ -38264,7 +38264,7 @@
         <v>-1.0923E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>-2.9870000000000001E-3</v>
       </c>
@@ -38380,7 +38380,7 @@
         <v>-1.0501999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>-3.3969999999999998E-3</v>
       </c>
@@ -38496,7 +38496,7 @@
         <v>-1.0293999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>-2.7100000000000002E-3</v>
       </c>
@@ -38612,7 +38612,7 @@
         <v>-9.8399999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>-2.5569999999999998E-3</v>
       </c>
@@ -38728,7 +38728,7 @@
         <v>-9.3860000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>-2.0509999999999999E-3</v>
       </c>
@@ -38844,7 +38844,7 @@
         <v>-9.5239999999999995E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>-1.1529999999999999E-3</v>
       </c>
@@ -38960,7 +38960,7 @@
         <v>-9.3489999999999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>-7.0899999999999999E-4</v>
       </c>
@@ -39076,7 +39076,7 @@
         <v>-9.1979999999999996E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>-3.3500000000000001E-4</v>
       </c>
@@ -39192,7 +39192,7 @@
         <v>-9.0749999999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.1700000000000001E-4</v>
       </c>
@@ -39308,7 +39308,7 @@
         <v>-9.077E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.68E-4</v>
       </c>
@@ -39424,7 +39424,7 @@
         <v>-8.9750000000000003E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7.3999999999999999E-4</v>
       </c>
@@ -39540,7 +39540,7 @@
         <v>-8.9180000000000006E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.8999999999999999E-4</v>
       </c>
@@ -39656,7 +39656,7 @@
         <v>-8.6619999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>-3.77E-4</v>
       </c>
@@ -39772,7 +39772,7 @@
         <v>-8.6339999999999993E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>-5.5199999999999997E-4</v>
       </c>
@@ -39888,7 +39888,7 @@
         <v>-8.4720000000000004E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>-1.413E-3</v>
       </c>
@@ -40004,7 +40004,7 @@
         <v>-8.1460000000000005E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>-1.8979999999999999E-3</v>
       </c>
@@ -40120,7 +40120,7 @@
         <v>-8.1770000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>-2.1819999999999999E-3</v>
       </c>
@@ -40236,7 +40236,7 @@
         <v>-7.9459999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>-2.82E-3</v>
       </c>
@@ -40352,7 +40352,7 @@
         <v>-7.8810000000000009E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>-5.8450000000000004E-3</v>
       </c>
@@ -40468,7 +40468,7 @@
         <v>-6.7990000000000004E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>-6.1799999999999997E-3</v>
       </c>
@@ -40584,7 +40584,7 @@
         <v>-6.7070000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>-6.5389999999999997E-3</v>
       </c>
@@ -40700,7 +40700,7 @@
         <v>-6.6930000000000002E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>-6.3860000000000002E-3</v>
       </c>
@@ -40816,7 +40816,7 @@
         <v>-6.8110000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>-6.234E-3</v>
       </c>
@@ -40932,7 +40932,7 @@
         <v>-6.8729999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>-5.921E-3</v>
       </c>
@@ -41048,7 +41048,7 @@
         <v>-7.0410000000000004E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>-5.2649999999999997E-3</v>
       </c>
@@ -41164,7 +41164,7 @@
         <v>-7.2529999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>-4.6709999999999998E-3</v>
       </c>
@@ -41280,7 +41280,7 @@
         <v>-7.3249999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>-3.9139999999999999E-3</v>
       </c>
@@ -41396,7 +41396,7 @@
         <v>-7.4019999999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>-3.3379999999999998E-3</v>
       </c>
@@ -41512,7 +41512,7 @@
         <v>-7.4590000000000004E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>-2.8630000000000001E-3</v>
       </c>
@@ -41628,7 +41628,7 @@
         <v>-7.2329999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>-2.5950000000000001E-3</v>
       </c>
@@ -41744,7 +41744,7 @@
         <v>-7.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>-2.2750000000000001E-3</v>
       </c>
@@ -41860,7 +41860,7 @@
         <v>-6.9519999999999998E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>-1.8400000000000001E-3</v>
       </c>
@@ -41976,7 +41976,7 @@
         <v>-6.6689999999999996E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>-1.9289999999999999E-3</v>
       </c>
@@ -42092,7 +42092,7 @@
         <v>-6.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>-2.0300000000000001E-3</v>
       </c>
@@ -42208,7 +42208,7 @@
         <v>-6.3080000000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>-2.0089999999999999E-3</v>
       </c>
@@ -42324,7 +42324,7 @@
         <v>-6.0219999999999996E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>-2.2070000000000002E-3</v>
       </c>
@@ -42440,7 +42440,7 @@
         <v>-6.1789999999999996E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>-1.639E-3</v>
       </c>
@@ -42556,7 +42556,7 @@
         <v>-5.9179999999999996E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>-1.768E-3</v>
       </c>
@@ -42672,7 +42672,7 @@
         <v>-5.7629999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>-2.0270000000000002E-3</v>
       </c>
@@ -42788,7 +42788,7 @@
         <v>-5.9030000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>-1.542E-3</v>
       </c>
@@ -42904,7 +42904,7 @@
         <v>-5.6210000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>-1.1839999999999999E-3</v>
       </c>
@@ -43020,7 +43020,7 @@
         <v>-5.4819999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>-1.065E-3</v>
       </c>
@@ -43136,7 +43136,7 @@
         <v>-5.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>-1.1509999999999999E-3</v>
       </c>
@@ -43252,7 +43252,7 @@
         <v>-5.5539999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>-7.7499999999999997E-4</v>
       </c>
@@ -43368,7 +43368,7 @@
         <v>-5.3239999999999997E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2.99E-4</v>
       </c>
@@ -43484,7 +43484,7 @@
         <v>-5.4510000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3.1799999999999998E-4</v>
       </c>
@@ -43600,7 +43600,7 @@
         <v>-5.901E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>6.1399999999999996E-4</v>
       </c>
@@ -43716,7 +43716,7 @@
         <v>-5.7650000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1.869E-3</v>
       </c>
@@ -43832,7 +43832,7 @@
         <v>-5.6880000000000003E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1.691E-3</v>
       </c>
@@ -43948,7 +43948,7 @@
         <v>-6.13E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2.0119999999999999E-3</v>
       </c>
@@ -44064,7 +44064,7 @@
         <v>-6.3470000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2.8839999999999998E-3</v>
       </c>
@@ -44180,7 +44180,7 @@
         <v>-6.025E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3.0179999999999998E-3</v>
       </c>
@@ -44296,7 +44296,7 @@
         <v>-6.0769999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2.614E-3</v>
       </c>
@@ -44412,7 +44412,7 @@
         <v>-6.1279999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2.6389999999999999E-3</v>
       </c>
@@ -44528,7 +44528,7 @@
         <v>-6.2789999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2.3890000000000001E-3</v>
       </c>
@@ -44644,7 +44644,7 @@
         <v>-6.3220000000000004E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2.418E-3</v>
       </c>
@@ -44760,7 +44760,7 @@
         <v>-5.6829999999999997E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1.5510000000000001E-3</v>
       </c>
@@ -44876,7 +44876,7 @@
         <v>-5.587E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1.6980000000000001E-3</v>
       </c>
@@ -44992,7 +44992,7 @@
         <v>-6.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1.8799999999999999E-4</v>
       </c>
@@ -45108,7 +45108,7 @@
         <v>-5.9059999999999998E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>-4.06E-4</v>
       </c>
@@ -45224,7 +45224,7 @@
         <v>-5.8310000000000002E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>-1.366E-3</v>
       </c>

--- a/deployment/Omaha_Cal_Info_CE09OSSM_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSSM_00001.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="245">
   <si>
     <t>Ref Des</t>
   </si>
@@ -390,9 +390,6 @@
     <t>CE09OSSM-RID27-01-OPTAAD000</t>
   </si>
   <si>
-    <t>CE09OSSM-MFD37-01-OPTAAD000</t>
-  </si>
-  <si>
     <t>CE09OSSM-RID27-02-FLORTD000</t>
   </si>
   <si>
@@ -400,12 +397,6 @@
   </si>
   <si>
     <t>CE09OSSM-RID27-04-DOSTAD000</t>
-  </si>
-  <si>
-    <t>CE09OSSM-RID27-07-NUTNRB000</t>
-  </si>
-  <si>
-    <t>CE09OSSM-RID27-08-SPKIRB000</t>
   </si>
   <si>
     <t>CE09OSSM-MFD35-01-VEL3DD000</t>
@@ -748,6 +739,51 @@
   </si>
   <si>
     <t>CE09OSSM-MFD37-03-DOSTAD000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-RID26-07-NUTNRB000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-RID26-08-SPKIRB000</t>
+  </si>
+  <si>
+    <t>CE09OSSM-MFD37-01-OPTAAC000</t>
+  </si>
+  <si>
+    <t>OL000445</t>
+  </si>
+  <si>
+    <t>OL000446</t>
+  </si>
+  <si>
+    <t>OL000447</t>
+  </si>
+  <si>
+    <t>OL000448</t>
+  </si>
+  <si>
+    <t>OL000449</t>
+  </si>
+  <si>
+    <t>OL000450</t>
+  </si>
+  <si>
+    <t>OL000451</t>
+  </si>
+  <si>
+    <t>OL000452</t>
+  </si>
+  <si>
+    <t>OL000453</t>
+  </si>
+  <si>
+    <t>OL000454</t>
+  </si>
+  <si>
+    <t>OL000455</t>
+  </si>
+  <si>
+    <t>OL000456</t>
   </si>
 </sst>
 </file>
@@ -1716,7 +1752,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>0</v>
@@ -1754,13 +1790,13 @@
     </row>
     <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -1775,16 +1811,16 @@
         <v>42272</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="J2" s="5">
         <v>542</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="24">
@@ -1822,11 +1858,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I205"/>
+  <dimension ref="A1:P205"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C132" sqref="C132"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R226" sqref="Q225:R226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1843,12 +1879,12 @@
     <col min="10" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>1</v>
@@ -1857,7 +1893,7 @@
         <v>34</v>
       </c>
       <c r="E1" s="29" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F1" s="29" t="s">
         <v>2</v>
@@ -1872,7 +1908,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1880,91 +1916,102 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
+      <c r="E3" s="26" t="s">
+        <v>233</v>
+      </c>
       <c r="F3" s="22" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
       </c>
+      <c r="E5" s="26" t="s">
+        <v>234</v>
+      </c>
       <c r="F5" s="22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="F6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
       </c>
+      <c r="E7" s="26" t="s">
+        <v>235</v>
+      </c>
       <c r="F7" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K8" s="10"/>
+      <c r="P8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>5</v>
@@ -1973,25 +2020,27 @@
         <v>46.853848333333332</v>
       </c>
       <c r="I9" s="22"/>
-    </row>
-    <row r="10" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K9" s="10"/>
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B10" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>6</v>
@@ -2000,25 +2049,27 @@
         <v>-124.95838333333333</v>
       </c>
       <c r="I10" s="22"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K10" s="10"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>35</v>
@@ -2027,25 +2078,27 @@
         <v>1.05</v>
       </c>
       <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K11" s="10"/>
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D12" s="1">
         <v>1</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>36</v>
@@ -2054,25 +2107,27 @@
         <v>4.08</v>
       </c>
       <c r="I12" s="22"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K12" s="10"/>
+      <c r="P12" s="10"/>
+    </row>
+    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D13" s="1">
         <v>1</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>37</v>
@@ -2081,25 +2136,27 @@
         <v>4.08</v>
       </c>
       <c r="I13" s="22"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K13" s="10"/>
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D14" s="1">
         <v>1</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>38</v>
@@ -2108,25 +2165,27 @@
         <v>4.6399999999999997</v>
       </c>
       <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K14" s="10"/>
+      <c r="P14" s="10"/>
+    </row>
+    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B15" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D15" s="1">
         <v>1</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>39</v>
@@ -2135,27 +2194,29 @@
         <v>1</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B16" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D16" s="1">
         <v>1</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>40</v>
@@ -2164,27 +2225,29 @@
         <v>1</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="K16" s="10"/>
+      <c r="P16" s="10"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D17" s="1">
         <v>1</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>41</v>
@@ -2193,57 +2256,65 @@
         <v>600</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K18" s="10"/>
+      <c r="P18" s="10"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D19" s="1">
         <v>1</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G19" s="10"/>
       <c r="I19" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="K19" s="10"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K20" s="10"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D21" s="1">
         <v>1</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F21" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>5</v>
@@ -2251,25 +2322,27 @@
       <c r="H21" s="1">
         <v>46.853848333333332</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K21" s="10"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
       </c>
       <c r="E22" s="26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="F22" s="30" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>6</v>
@@ -2277,28 +2350,32 @@
       <c r="H22" s="1">
         <v>-124.95838333333333</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K22" s="10"/>
+      <c r="P22" s="10"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G23" s="10"/>
-    </row>
-    <row r="24" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K23" s="10"/>
+      <c r="P23" s="10"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B24" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
       </c>
       <c r="E24" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F24" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>5</v>
@@ -2306,25 +2383,27 @@
       <c r="H24" s="1">
         <v>46.853848333333332</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B25" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D25" s="1">
         <v>1</v>
       </c>
       <c r="E25" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>6</v>
@@ -2332,26 +2411,28 @@
       <c r="H25" s="1">
         <v>-124.95838333333333</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D27" s="1">
         <v>1</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>5</v>
@@ -2359,25 +2440,27 @@
       <c r="H27" s="1">
         <v>46.853848333333332</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K27" s="10"/>
+      <c r="P27" s="10"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B28" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D28" s="1">
         <v>1</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F28" s="30" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>6</v>
@@ -2385,28 +2468,32 @@
       <c r="H28" s="1">
         <v>-124.95838333333333</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K28" s="10"/>
+      <c r="P28" s="10"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G29" s="10"/>
-    </row>
-    <row r="30" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K29" s="10"/>
+      <c r="P29" s="10"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>14</v>
@@ -2414,25 +2501,27 @@
       <c r="H30" s="1">
         <v>17533</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K30" s="10"/>
+      <c r="P30" s="10"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>16</v>
@@ -2440,25 +2529,27 @@
       <c r="H31" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K31" s="10"/>
+      <c r="P31" s="10"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D32" s="1">
         <v>1</v>
       </c>
       <c r="E32" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>15</v>
@@ -2466,25 +2557,27 @@
       <c r="H32" s="1">
         <v>2229</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K32" s="10"/>
+      <c r="P32" s="10"/>
+    </row>
+    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D33" s="1">
         <v>1</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>17</v>
@@ -2492,25 +2585,27 @@
       <c r="H33" s="1">
         <v>38502</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K33" s="10"/>
+      <c r="P33" s="10"/>
+    </row>
+    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D34" s="1">
         <v>1</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>19</v>
@@ -2518,25 +2613,27 @@
       <c r="H34" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K34" s="10"/>
+      <c r="P34" s="10"/>
+    </row>
+    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D35" s="1">
         <v>1</v>
       </c>
       <c r="E35" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>18</v>
@@ -2544,25 +2641,27 @@
       <c r="H35" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K35" s="10"/>
+      <c r="P35" s="10"/>
+    </row>
+    <row r="36" spans="1:16" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>116</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D36" s="10">
         <v>1</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>100</v>
@@ -2574,27 +2673,29 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G37" s="10"/>
-    </row>
-    <row r="38" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K37" s="10"/>
+      <c r="P37" s="10"/>
+    </row>
+    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D38" s="1">
         <v>1</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>14</v>
@@ -2602,25 +2703,26 @@
       <c r="H38" s="1">
         <v>17533</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D39" s="1">
         <v>1</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>16</v>
@@ -2628,25 +2730,26 @@
       <c r="H39" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D40" s="1">
         <v>1</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>15</v>
@@ -2654,25 +2757,26 @@
       <c r="H40" s="1">
         <v>2229</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D41" s="1">
         <v>1</v>
       </c>
       <c r="E41" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>17</v>
@@ -2680,25 +2784,26 @@
       <c r="H41" s="1">
         <v>38502</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D42" s="1">
         <v>1</v>
       </c>
       <c r="E42" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>19</v>
@@ -2706,25 +2811,26 @@
       <c r="H42" s="28">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D43" s="1">
         <v>1</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>18</v>
@@ -2732,25 +2838,26 @@
       <c r="H43" s="28">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="1:16" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D44" s="10">
         <v>1</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>100</v>
@@ -2762,79 +2869,82 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="G45" s="10"/>
-    </row>
-    <row r="46" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="1">
         <v>1</v>
       </c>
       <c r="E46" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G46" s="10" t="s">
         <v>101</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>166</v>
+      </c>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D47" s="1">
         <v>1</v>
       </c>
       <c r="E47" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G47" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D48" s="1">
         <v>1</v>
       </c>
       <c r="E48" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G48" s="10" t="s">
         <v>42</v>
@@ -2842,210 +2952,219 @@
       <c r="H48" s="1">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D49" s="1">
         <v>1</v>
       </c>
       <c r="E49" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G49" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D50" s="1">
         <v>1</v>
       </c>
       <c r="E50" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>103</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B51" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D51" s="1">
         <v>1</v>
       </c>
       <c r="E51" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>104</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B52" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D52" s="1">
         <v>1</v>
       </c>
       <c r="E52" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B53" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D53" s="6">
         <v>1</v>
       </c>
       <c r="E53" s="26" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G53" s="6" t="s">
         <v>106</v>
       </c>
       <c r="H53" s="6" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G54" s="10"/>
-    </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>119</v>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B55" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D55" s="1">
         <v>1</v>
       </c>
       <c r="E55" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>101</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>119</v>
+        <v>171</v>
+      </c>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B56" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D56" s="1">
         <v>1</v>
       </c>
       <c r="E56" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>102</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>119</v>
+        <v>172</v>
+      </c>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B57" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D57" s="1">
         <v>1</v>
       </c>
       <c r="E57" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>42</v>
@@ -3053,155 +3172,162 @@
       <c r="H57" s="1">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>119</v>
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D58" s="1">
         <v>1</v>
       </c>
       <c r="E58" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G58" s="10" t="s">
         <v>43</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>119</v>
+        <v>173</v>
+      </c>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D59" s="1">
         <v>1</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G59" s="10" t="s">
         <v>103</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>119</v>
+        <v>174</v>
+      </c>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B60" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D60" s="1">
         <v>1</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G60" s="10" t="s">
         <v>104</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>175</v>
+      </c>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B61" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D61" s="1">
         <v>1</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G61" s="10" t="s">
         <v>105</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>119</v>
+        <v>164</v>
+      </c>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>232</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D62" s="1">
         <v>1</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G62" s="10" t="s">
         <v>106</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G63" s="10"/>
-    </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B64" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D64" s="1">
         <v>1</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F64" s="1">
         <v>1155</v>
@@ -3212,22 +3338,23 @@
       <c r="H64" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K64" s="10"/>
+    </row>
+    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D65" s="1">
         <v>1</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F65" s="1">
         <v>1155</v>
@@ -3238,22 +3365,23 @@
       <c r="H65" s="1">
         <v>1.84E-6</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K65" s="10"/>
+    </row>
+    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D66" s="1">
         <v>1</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F66" s="1">
         <v>1155</v>
@@ -3264,22 +3392,23 @@
       <c r="H66" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K66" s="10"/>
+    </row>
+    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D67" s="1">
         <v>1</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F67" s="1">
         <v>1155</v>
@@ -3290,22 +3419,23 @@
       <c r="H67" s="1">
         <v>7.3000000000000001E-3</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K67" s="10"/>
+    </row>
+    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D68" s="1">
         <v>1</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F68" s="1">
         <v>1155</v>
@@ -3316,22 +3446,23 @@
       <c r="H68" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K68" s="10"/>
+    </row>
+    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B69" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D69" s="1">
         <v>1</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F69" s="1">
         <v>1155</v>
@@ -3342,22 +3473,23 @@
       <c r="H69" s="1">
         <v>9.0300000000000005E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K69" s="10"/>
+    </row>
+    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B70" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D70" s="1">
         <v>1</v>
       </c>
       <c r="E70" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F70" s="1">
         <v>1155</v>
@@ -3371,22 +3503,23 @@
       <c r="I70" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K70" s="10"/>
+    </row>
+    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B71" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D71" s="1">
         <v>1</v>
       </c>
       <c r="E71" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F71" s="1">
         <v>1155</v>
@@ -3400,22 +3533,23 @@
       <c r="I71" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K71" s="10"/>
+    </row>
+    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B72" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D72" s="1">
         <v>1</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F72" s="1">
         <v>1155</v>
@@ -3429,22 +3563,23 @@
       <c r="I72" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K72" s="10"/>
+    </row>
+    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B73" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D73" s="1">
         <v>1</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F73" s="1">
         <v>1155</v>
@@ -3458,28 +3593,30 @@
       <c r="I73" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K73" s="10"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G74" s="10"/>
-    </row>
-    <row r="75" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K74" s="10"/>
+    </row>
+    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D75" s="1">
         <v>1</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G75" s="10" t="s">
         <v>5</v>
@@ -3487,25 +3624,26 @@
       <c r="H75" s="1">
         <v>46.853848333333332</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K75" s="10"/>
+    </row>
+    <row r="76" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D76" s="8">
         <v>1</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G76" s="10" t="s">
         <v>6</v>
@@ -3513,25 +3651,26 @@
       <c r="H76" s="8">
         <v>-124.95838333333333</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K76" s="10"/>
+    </row>
+    <row r="77" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D77" s="8">
         <v>1</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G77" s="10" t="s">
         <v>76</v>
@@ -3539,25 +3678,26 @@
       <c r="H77" s="8">
         <v>1.271243E-3</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K77" s="10"/>
+    </row>
+    <row r="78" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B78" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D78" s="8">
         <v>1</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G78" s="10" t="s">
         <v>77</v>
@@ -3565,25 +3705,26 @@
       <c r="H78" s="8">
         <v>2.7474180000000001E-4</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K78" s="10"/>
+    </row>
+    <row r="79" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B79" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D79" s="8">
         <v>1</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>78</v>
@@ -3591,25 +3732,26 @@
       <c r="H79" s="8">
         <v>-1.5384759999999999E-6</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K79" s="10"/>
+    </row>
+    <row r="80" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D80" s="8">
         <v>1</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G80" s="10" t="s">
         <v>79</v>
@@ -3617,25 +3759,26 @@
       <c r="H80" s="8">
         <v>1.962203E-7</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K80" s="10"/>
+    </row>
+    <row r="81" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B81" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D81" s="8">
         <v>1</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>80</v>
@@ -3643,25 +3786,26 @@
       <c r="H81" s="8">
         <v>-58.45279</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K81" s="10"/>
+    </row>
+    <row r="82" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B82" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D82" s="8">
         <v>1</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G82" s="10" t="s">
         <v>81</v>
@@ -3669,25 +3813,26 @@
       <c r="H82" s="8">
         <v>53.847279999999998</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K82" s="10"/>
+    </row>
+    <row r="83" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D83" s="8">
         <v>1</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G83" s="10" t="s">
         <v>82</v>
@@ -3695,25 +3840,26 @@
       <c r="H83" s="8">
         <v>-0.54758289999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K83" s="10"/>
+    </row>
+    <row r="84" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B84" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D84" s="8">
         <v>1</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G84" s="10" t="s">
         <v>83</v>
@@ -3721,25 +3867,26 @@
       <c r="H84" s="8">
         <v>524685.69999999995</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K84" s="10"/>
+    </row>
+    <row r="85" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B85" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D85" s="8">
         <v>1</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>84</v>
@@ -3747,25 +3894,26 @@
       <c r="H85" s="8">
         <v>37.232759999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K85" s="10"/>
+    </row>
+    <row r="86" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B86" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D86" s="8">
         <v>1</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>85</v>
@@ -3773,25 +3921,26 @@
       <c r="H86" s="8">
         <v>-0.91068749999999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K86" s="10"/>
+    </row>
+    <row r="87" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B87" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D87" s="8">
         <v>1</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>86</v>
@@ -3799,25 +3948,26 @@
       <c r="H87" s="8">
         <v>24.993870000000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K87" s="10"/>
+    </row>
+    <row r="88" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B88" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D88" s="8">
         <v>1</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G88" s="10" t="s">
         <v>87</v>
@@ -3825,25 +3975,26 @@
       <c r="H88" s="8">
         <v>-2.5000000000000001E-5</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K88" s="10"/>
+    </row>
+    <row r="89" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B89" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D89" s="8">
         <v>1</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G89" s="10" t="s">
         <v>88</v>
@@ -3851,25 +4002,26 @@
       <c r="H89" s="8">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K89" s="10"/>
+    </row>
+    <row r="90" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B90" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D90" s="8">
         <v>1</v>
       </c>
       <c r="E90" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G90" s="10" t="s">
         <v>89</v>
@@ -3877,25 +4029,26 @@
       <c r="H90" s="8">
         <v>0.1858051</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K90" s="10"/>
+    </row>
+    <row r="91" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B91" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D91" s="8">
         <v>1</v>
       </c>
       <c r="E91" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G91" s="10" t="s">
         <v>90</v>
@@ -3903,25 +4056,26 @@
       <c r="H91" s="8">
         <v>4.8880889999999995E-4</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K91" s="10"/>
+    </row>
+    <row r="92" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B92" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D92" s="8">
         <v>1</v>
       </c>
       <c r="E92" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G92" s="10" t="s">
         <v>91</v>
@@ -3929,25 +4083,26 @@
       <c r="H92" s="8">
         <v>-6.2283480000000003E-12</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K92" s="10"/>
+    </row>
+    <row r="93" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B93" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D93" s="8">
         <v>1</v>
       </c>
       <c r="E93" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G93" s="10" t="s">
         <v>92</v>
@@ -3955,25 +4110,26 @@
       <c r="H93" s="8">
         <v>-0.98255250000000005</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K93" s="10"/>
+    </row>
+    <row r="94" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B94" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D94" s="8">
         <v>1</v>
       </c>
       <c r="E94" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G94" s="10" t="s">
         <v>93</v>
@@ -3981,25 +4137,26 @@
       <c r="H94" s="8">
         <v>0.1389213</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K94" s="10"/>
+    </row>
+    <row r="95" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D95" s="8">
         <v>1</v>
       </c>
       <c r="E95" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G95" s="10" t="s">
         <v>94</v>
@@ -4007,25 +4164,26 @@
       <c r="H95" s="8">
         <v>-2.5215239999999998E-4</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K95" s="10"/>
+    </row>
+    <row r="96" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B96" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D96" s="8">
         <v>1</v>
       </c>
       <c r="E96" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G96" s="10" t="s">
         <v>95</v>
@@ -4033,25 +4191,26 @@
       <c r="H96" s="8">
         <v>3.7572340000000002E-5</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K96" s="10"/>
+    </row>
+    <row r="97" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B97" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D97" s="8">
         <v>1</v>
       </c>
       <c r="E97" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G97" s="10" t="s">
         <v>96</v>
@@ -4059,25 +4218,26 @@
       <c r="H97" s="8">
         <v>-9.5700000000000003E-8</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K97" s="10"/>
+    </row>
+    <row r="98" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B98" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D98" s="8">
         <v>1</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G98" s="10" t="s">
         <v>97</v>
@@ -4085,26 +4245,27 @@
       <c r="H98" s="8">
         <v>3.2499999999999998E-6</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K98" s="10"/>
+    </row>
+    <row r="99" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B100" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D100" s="1">
         <v>1</v>
       </c>
       <c r="E100" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G100" s="10" t="s">
         <v>5</v>
@@ -4112,25 +4273,26 @@
       <c r="H100" s="1">
         <v>46.853848333333332</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K100" s="10"/>
+    </row>
+    <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B101" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D101" s="1">
         <v>1</v>
       </c>
       <c r="E101" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G101" s="10" t="s">
         <v>6</v>
@@ -4138,25 +4300,26 @@
       <c r="H101" s="1">
         <v>-124.95838333333333</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K101" s="10"/>
+    </row>
+    <row r="102" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B102" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D102" s="10">
         <v>1</v>
       </c>
       <c r="E102" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G102" s="10" t="s">
         <v>76</v>
@@ -4165,24 +4328,24 @@
         <v>1.2886E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B103" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D103" s="10">
         <v>1</v>
       </c>
       <c r="E103" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G103" s="10" t="s">
         <v>77</v>
@@ -4191,24 +4354,24 @@
         <v>2.6747309999999999E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B104" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D104" s="10">
         <v>1</v>
       </c>
       <c r="E104" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G104" s="10" t="s">
         <v>78</v>
@@ -4217,24 +4380,24 @@
         <v>-5.8357599999999998E-7</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B105" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D105" s="10">
         <v>1</v>
       </c>
       <c r="E105" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F105" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G105" s="10" t="s">
         <v>79</v>
@@ -4243,24 +4406,24 @@
         <v>1.5942049999999999E-7</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B106" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D106" s="10">
         <v>1</v>
       </c>
       <c r="E106" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F106" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G106" s="10" t="s">
         <v>80</v>
@@ -4269,24 +4432,24 @@
         <v>-63.97</v>
       </c>
     </row>
-    <row r="107" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B107" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D107" s="10">
         <v>1</v>
       </c>
       <c r="E107" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F107" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G107" s="10" t="s">
         <v>81</v>
@@ -4295,24 +4458,24 @@
         <v>53.352960000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B108" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D108" s="10">
         <v>1</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G108" s="10" t="s">
         <v>82</v>
@@ -4321,24 +4484,24 @@
         <v>-0.60973619999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B109" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D109" s="10">
         <v>1</v>
       </c>
       <c r="E109" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G109" s="10" t="s">
         <v>83</v>
@@ -4347,24 +4510,24 @@
         <v>524536.69999999995</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B110" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D110" s="10">
         <v>1</v>
       </c>
       <c r="E110" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G110" s="10" t="s">
         <v>84</v>
@@ -4373,24 +4536,24 @@
         <v>-60.361229999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B111" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D111" s="10">
         <v>1</v>
       </c>
       <c r="E111" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F111" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G111" s="10" t="s">
         <v>85</v>
@@ -4399,24 +4562,24 @@
         <v>0.93277659999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B112" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D112" s="10">
         <v>1</v>
       </c>
       <c r="E112" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F112" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G112" s="10" t="s">
         <v>86</v>
@@ -4425,24 +4588,24 @@
         <v>24.888870000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B113" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D113" s="10">
         <v>1</v>
       </c>
       <c r="E113" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G113" s="10" t="s">
         <v>87</v>
@@ -4451,24 +4614,24 @@
         <v>-6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B114" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D114" s="10">
         <v>1</v>
       </c>
       <c r="E114" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F114" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G114" s="10" t="s">
         <v>88</v>
@@ -4477,24 +4640,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B115" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D115" s="10">
         <v>1</v>
       </c>
       <c r="E115" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F115" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G115" s="10" t="s">
         <v>89</v>
@@ -4503,24 +4666,24 @@
         <v>-2.2917869999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B116" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D116" s="10">
         <v>1</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F116" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G116" s="10" t="s">
         <v>90</v>
@@ -4529,24 +4692,24 @@
         <v>2.6512390000000001E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B117" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D117" s="10">
         <v>1</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F117" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G117" s="10" t="s">
         <v>91</v>
@@ -4555,24 +4718,24 @@
         <v>1.57055E-11</v>
       </c>
     </row>
-    <row r="118" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B118" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D118" s="10">
         <v>1</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G118" s="10" t="s">
         <v>92</v>
@@ -4581,24 +4744,24 @@
         <v>-0.98847790000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B119" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D119" s="10">
         <v>1</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G119" s="10" t="s">
         <v>93</v>
@@ -4607,24 +4770,24 @@
         <v>0.14048479999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B120" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D120" s="10">
         <v>1</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G120" s="10" t="s">
         <v>94</v>
@@ -4633,24 +4796,24 @@
         <v>-5.8074639999999996E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B121" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D121" s="10">
         <v>1</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G121" s="10" t="s">
         <v>95</v>
@@ -4659,24 +4822,24 @@
         <v>5.740902E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B122" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D122" s="10">
         <v>1</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G122" s="10" t="s">
         <v>96</v>
@@ -4685,24 +4848,24 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="123" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B123" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D123" s="10">
         <v>1</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F123" s="10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G123" s="10" t="s">
         <v>97</v>
@@ -4711,24 +4874,25 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G124" s="10"/>
-    </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K124" s="10"/>
+    </row>
+    <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B125" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D125" s="1">
         <v>1</v>
       </c>
       <c r="E125" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F125" s="1">
         <v>292</v>
@@ -4739,22 +4903,23 @@
       <c r="H125" s="1">
         <v>46.853848333333332</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K125" s="10"/>
+    </row>
+    <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B126" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D126" s="1">
         <v>1</v>
       </c>
       <c r="E126" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F126" s="1">
         <v>292</v>
@@ -4765,22 +4930,23 @@
       <c r="H126" s="1">
         <v>-124.95838333333333</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K126" s="10"/>
+    </row>
+    <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B127" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D127" s="1">
         <v>1</v>
       </c>
       <c r="E127" s="26" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F127" s="1">
         <v>292</v>
@@ -4789,27 +4955,29 @@
         <v>11</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+      <c r="K127" s="10"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G128" s="10"/>
-    </row>
-    <row r="129" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K128" s="10"/>
+    </row>
+    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B129" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D129" s="1">
         <v>1</v>
       </c>
       <c r="E129" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F129" s="1">
         <v>222</v>
@@ -4820,22 +4988,23 @@
       <c r="H129" s="1">
         <v>46.853848333333332</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K129" s="10"/>
+    </row>
+    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B130" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D130" s="1">
         <v>1</v>
       </c>
       <c r="E130" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F130" s="1">
         <v>222</v>
@@ -4846,22 +5015,23 @@
       <c r="H130" s="1">
         <v>-124.95838333333333</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K130" s="10"/>
+    </row>
+    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B131" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D131" s="1">
         <v>1</v>
       </c>
       <c r="E131" s="26" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F131" s="1">
         <v>222</v>
@@ -4870,27 +5040,29 @@
         <v>11</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="K131" s="10"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G132" s="10"/>
-    </row>
-    <row r="133" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="1" t="s">
-        <v>123</v>
+      <c r="K132" s="10"/>
+    </row>
+    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="B133" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D133" s="1">
         <v>1</v>
       </c>
       <c r="E133" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F133" s="1">
         <v>263</v>
@@ -4904,22 +5076,23 @@
       <c r="I133" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="1" t="s">
-        <v>123</v>
+      <c r="K133" s="10"/>
+    </row>
+    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="B134" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D134" s="1">
         <v>1</v>
       </c>
       <c r="E134" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F134" s="1">
         <v>263</v>
@@ -4933,22 +5106,23 @@
       <c r="I134" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="1" t="s">
-        <v>123</v>
+      <c r="K134" s="10"/>
+    </row>
+    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="B135" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D135" s="1">
         <v>1</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F135" s="1">
         <v>263</v>
@@ -4959,22 +5133,23 @@
       <c r="H135" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="1" t="s">
-        <v>123</v>
+      <c r="K135" s="10"/>
+    </row>
+    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="B136" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D136" s="1">
         <v>1</v>
       </c>
       <c r="E136" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F136" s="1">
         <v>263</v>
@@ -4983,24 +5158,25 @@
         <v>47</v>
       </c>
       <c r="H136" s="26" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="1" t="s">
-        <v>123</v>
+        <v>188</v>
+      </c>
+      <c r="K136" s="10"/>
+    </row>
+    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="B137" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D137" s="1">
         <v>1</v>
       </c>
       <c r="E137" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F137" s="1">
         <v>263</v>
@@ -5009,24 +5185,25 @@
         <v>48</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="1" t="s">
-        <v>123</v>
+        <v>178</v>
+      </c>
+      <c r="K137" s="10"/>
+    </row>
+    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="B138" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D138" s="1">
         <v>1</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F138" s="1">
         <v>263</v>
@@ -5035,24 +5212,25 @@
         <v>49</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="1" t="s">
-        <v>123</v>
+        <v>179</v>
+      </c>
+      <c r="K138" s="10"/>
+    </row>
+    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
+        <v>230</v>
       </c>
       <c r="B139" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D139" s="1">
         <v>1</v>
       </c>
       <c r="E139" s="26" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F139" s="1">
         <v>263</v>
@@ -5061,102 +5239,112 @@
         <v>50</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="1" t="s">
-        <v>124</v>
+        <v>180</v>
+      </c>
+      <c r="K139" s="10"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K140" s="10"/>
+    </row>
+    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="B141" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D141" s="1">
         <v>1</v>
       </c>
       <c r="E141" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F141" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G141" s="1" t="s">
         <v>51</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="1" t="s">
-        <v>124</v>
+        <v>182</v>
+      </c>
+      <c r="K141" s="10"/>
+    </row>
+    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="B142" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D142" s="1">
         <v>1</v>
       </c>
       <c r="E142" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G142" s="1" t="s">
         <v>52</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="1" t="s">
-        <v>124</v>
+        <v>183</v>
+      </c>
+      <c r="K142" s="10"/>
+    </row>
+    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="10" t="s">
+        <v>231</v>
       </c>
       <c r="B143" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D143" s="1">
         <v>1</v>
       </c>
       <c r="E143" s="26" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F143" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G143" s="1" t="s">
         <v>53</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="K143" s="10"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K144" s="10"/>
+    </row>
+    <row r="145" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C145" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B145" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="D145" s="10">
         <v>1</v>
       </c>
       <c r="E145" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F145" s="10">
         <v>17122</v>
@@ -5168,21 +5356,21 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C146" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B146" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C146" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="D146" s="10">
         <v>1</v>
       </c>
       <c r="E146" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F146" s="10">
         <v>17122</v>
@@ -5194,21 +5382,21 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="147" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B147" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="D147" s="10">
         <v>1</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F147" s="10">
         <v>17122</v>
@@ -5220,21 +5408,21 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B148" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="D148" s="10">
         <v>1</v>
       </c>
       <c r="E148" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F148" s="10">
         <v>17122</v>
@@ -5246,21 +5434,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="149" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C149" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B149" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="D149" s="10">
         <v>1</v>
       </c>
       <c r="E149" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F149" s="10">
         <v>17122</v>
@@ -5272,21 +5460,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="150" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B150" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="D150" s="10">
         <v>1</v>
       </c>
       <c r="E150" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F150" s="10">
         <v>17122</v>
@@ -5298,21 +5486,21 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>200</v>
+      </c>
+      <c r="C151" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="B151" s="26" t="s">
-        <v>203</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>142</v>
       </c>
       <c r="D151" s="10">
         <v>1</v>
       </c>
       <c r="E151" s="26" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F151" s="10">
         <v>17122</v>
@@ -5324,22 +5512,22 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="152" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B153" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D153" s="1">
         <v>1</v>
       </c>
       <c r="E153" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F153" s="1">
         <v>18978</v>
@@ -5350,22 +5538,23 @@
       <c r="H153" s="1">
         <v>542000</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K153" s="10"/>
+    </row>
+    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B154" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D154" s="1">
         <v>1</v>
       </c>
       <c r="E154" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F154" s="1">
         <v>18978</v>
@@ -5376,22 +5565,23 @@
       <c r="H154" s="1">
         <v>46.853848333333332</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K154" s="10"/>
+    </row>
+    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B155" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D155" s="1">
         <v>1</v>
       </c>
       <c r="E155" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F155" s="1">
         <v>18978</v>
@@ -5402,22 +5592,23 @@
       <c r="H155" s="1">
         <v>-124.95838333333333</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K155" s="10"/>
+    </row>
+    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B156" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D156" s="1">
         <v>1</v>
       </c>
       <c r="E156" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F156" s="1">
         <v>18978</v>
@@ -5428,22 +5619,23 @@
       <c r="H156" s="1">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K156" s="10"/>
+    </row>
+    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B157" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D157" s="1">
         <v>1</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F157" s="1">
         <v>18978</v>
@@ -5454,22 +5646,23 @@
       <c r="H157" s="1">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K157" s="10"/>
+    </row>
+    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B158" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D158" s="1">
         <v>1</v>
       </c>
       <c r="E158" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F158" s="1">
         <v>18978</v>
@@ -5480,22 +5673,23 @@
       <c r="H158" s="1">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="K158" s="10"/>
+    </row>
+    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B159" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D159" s="1">
         <v>1</v>
       </c>
       <c r="E159" s="26" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F159" s="1">
         <v>18978</v>
@@ -5506,29 +5700,31 @@
       <c r="H159" s="1">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K159" s="10"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
-    </row>
-    <row r="161" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K160" s="10"/>
+    </row>
+    <row r="161" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B161" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D161" s="10">
         <v>1</v>
       </c>
       <c r="E161" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F161" s="10">
         <v>11710</v>
@@ -5539,22 +5735,23 @@
       <c r="H161" s="23">
         <v>46.853848333333332</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K161" s="10"/>
+    </row>
+    <row r="162" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B162" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D162" s="10">
         <v>1</v>
       </c>
       <c r="E162" s="26" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F162" s="10">
         <v>11710</v>
@@ -5565,29 +5762,31 @@
       <c r="H162" s="23">
         <v>-124.95838333333333</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K162" s="10"/>
+    </row>
+    <row r="163" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B163" s="26"/>
       <c r="E163" s="26"/>
-    </row>
-    <row r="164" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K163" s="10"/>
+    </row>
+    <row r="164" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B164" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D164" s="1">
         <v>1</v>
       </c>
       <c r="E164" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F164" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>56</v>
@@ -5595,25 +5794,26 @@
       <c r="H164" s="1">
         <v>-5916.308</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K164" s="10"/>
+    </row>
+    <row r="165" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B165" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
       </c>
       <c r="E165" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F165" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G165" s="1" t="s">
         <v>57</v>
@@ -5621,25 +5821,26 @@
       <c r="H165" s="1">
         <v>195.72069999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K165" s="10"/>
+    </row>
+    <row r="166" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B166" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
       </c>
       <c r="E166" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F166" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G166" s="1" t="s">
         <v>58</v>
@@ -5647,25 +5848,26 @@
       <c r="H166" s="1">
         <v>16601.59</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K166" s="10"/>
+    </row>
+    <row r="167" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B167" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F167" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G167" s="1" t="s">
         <v>59</v>
@@ -5673,25 +5875,26 @@
       <c r="H167" s="1">
         <v>6.8552000000000002E-2</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K167" s="10"/>
+    </row>
+    <row r="168" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B168" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D168" s="1">
         <v>1</v>
       </c>
       <c r="E168" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F168" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G168" s="1" t="s">
         <v>60</v>
@@ -5699,25 +5902,26 @@
       <c r="H168" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K168" s="10"/>
+    </row>
+    <row r="169" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B169" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F169" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G169" s="1" t="s">
         <v>54</v>
@@ -5728,25 +5932,26 @@
       <c r="I169" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K169" s="10"/>
+    </row>
+    <row r="170" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B170" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F170" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G170" s="1" t="s">
         <v>61</v>
@@ -5754,25 +5959,26 @@
       <c r="H170" s="1">
         <v>-0.40789999999999998</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K170" s="10"/>
+    </row>
+    <row r="171" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B171" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
       </c>
       <c r="E171" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F171" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G171" s="1" t="s">
         <v>55</v>
@@ -5783,25 +5989,26 @@
       <c r="I171" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K171" s="10"/>
+    </row>
+    <row r="172" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B172" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
       </c>
       <c r="E172" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F172" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G172" s="1" t="s">
         <v>62</v>
@@ -5809,25 +6016,26 @@
       <c r="H172" s="1">
         <v>30.066870000000002</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K172" s="10"/>
+    </row>
+    <row r="173" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B173" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
       </c>
       <c r="E173" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F173" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G173" s="1" t="s">
         <v>63</v>
@@ -5835,25 +6043,26 @@
       <c r="H173" s="1">
         <v>0.96473500000000001</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K173" s="10"/>
+    </row>
+    <row r="174" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B174" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
       </c>
       <c r="E174" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F174" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G174" s="1" t="s">
         <v>64</v>
@@ -5861,25 +6070,26 @@
       <c r="H174" s="1">
         <v>43.283189999999998</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K174" s="10"/>
+    </row>
+    <row r="175" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B175" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
       </c>
       <c r="E175" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F175" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G175" s="1" t="s">
         <v>65</v>
@@ -5887,25 +6097,26 @@
       <c r="H175" s="1">
         <v>92.590029999999999</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K175" s="10"/>
+    </row>
+    <row r="176" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B176" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D176" s="1">
         <v>1</v>
       </c>
       <c r="E176" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F176" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G176" s="1" t="s">
         <v>66</v>
@@ -5913,25 +6124,26 @@
       <c r="H176" s="1">
         <v>5.8215640000000004</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K176" s="10"/>
+    </row>
+    <row r="177" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B177" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F177" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G177" s="1" t="s">
         <v>67</v>
@@ -5939,25 +6151,26 @@
       <c r="H177" s="1">
         <v>-3880.3739999999998</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K177" s="10"/>
+    </row>
+    <row r="178" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B178" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D178" s="1">
         <v>1</v>
       </c>
       <c r="E178" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F178" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G178" s="1" t="s">
         <v>68</v>
@@ -5965,25 +6178,26 @@
       <c r="H178" s="1">
         <v>-9063.1530000000002</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K178" s="10"/>
+    </row>
+    <row r="179" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B179" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D179" s="1">
         <v>1</v>
       </c>
       <c r="E179" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F179" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G179" s="1" t="s">
         <v>69</v>
@@ -5991,25 +6205,26 @@
       <c r="H179" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K179" s="10"/>
+    </row>
+    <row r="180" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B180" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C180" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D180" s="10">
         <v>1</v>
       </c>
       <c r="E180" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F180" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G180" s="10" t="s">
         <v>98</v>
@@ -6018,24 +6233,24 @@
         <v>838.8</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B181" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C181" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D181" s="10">
         <v>1</v>
       </c>
       <c r="E181" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F181" s="30" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G181" s="10" t="s">
         <v>99</v>
@@ -6044,24 +6259,27 @@
         <v>12582.9</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K182" s="10"/>
+    </row>
+    <row r="183" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B183" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
       </c>
       <c r="E183" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>70</v>
@@ -6069,25 +6287,26 @@
       <c r="H183" s="1">
         <v>7.1999999999999998E-3</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K183" s="10"/>
+    </row>
+    <row r="184" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B184" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
       </c>
       <c r="E184" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G184" s="1" t="s">
         <v>71</v>
@@ -6095,25 +6314,26 @@
       <c r="H184" s="1">
         <v>0.73519999999999996</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K184" s="10"/>
+    </row>
+    <row r="185" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B185" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D185" s="1">
         <v>1</v>
       </c>
       <c r="E185" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>72</v>
@@ -6121,25 +6341,26 @@
       <c r="H185" s="1">
         <v>-1.5599000000000001</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K185" s="10"/>
+    </row>
+    <row r="186" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B186" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D186" s="1">
         <v>1</v>
       </c>
       <c r="E186" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F186" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G186" s="1" t="s">
         <v>73</v>
@@ -6147,25 +6368,26 @@
       <c r="H186" s="1">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K186" s="10"/>
+    </row>
+    <row r="187" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B187" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
       </c>
       <c r="E187" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F187" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G187" s="1" t="s">
         <v>14</v>
@@ -6173,25 +6395,26 @@
       <c r="H187" s="1">
         <v>19706</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K187" s="10"/>
+    </row>
+    <row r="188" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B188" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D188" s="1">
         <v>1</v>
       </c>
       <c r="E188" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F188" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G188" s="1" t="s">
         <v>74</v>
@@ -6199,25 +6422,26 @@
       <c r="H188" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K188" s="10"/>
+    </row>
+    <row r="189" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B189" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
       </c>
       <c r="E189" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F189" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G189" s="1" t="s">
         <v>15</v>
@@ -6225,25 +6449,26 @@
       <c r="H189" s="1">
         <v>3073</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K189" s="10"/>
+    </row>
+    <row r="190" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B190" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
       </c>
       <c r="E190" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G190" s="1" t="s">
         <v>75</v>
@@ -6251,238 +6476,280 @@
       <c r="H190" s="1">
         <v>44327</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="K190" s="10"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K191" s="10"/>
+    </row>
+    <row r="192" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B192" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C192" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D192" s="10">
         <v>1</v>
       </c>
       <c r="E192" s="26" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F192" s="10" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I192" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B194" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C194" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
       </c>
       <c r="E194" s="26" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F194" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I194" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+      <c r="K194" s="10"/>
+    </row>
+    <row r="195" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B196" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
       </c>
+      <c r="E196" s="26" t="s">
+        <v>236</v>
+      </c>
       <c r="F196" s="22" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="K196" s="10"/>
+    </row>
+    <row r="197" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B197" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
       </c>
+      <c r="E197" s="26" t="s">
+        <v>237</v>
+      </c>
       <c r="F197" s="22" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I197" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="K197" s="10"/>
+    </row>
+    <row r="198" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B198" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D198" s="1">
         <v>1</v>
       </c>
+      <c r="E198" s="26" t="s">
+        <v>238</v>
+      </c>
       <c r="F198" s="22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I198" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="K198" s="10"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F199" s="22"/>
       <c r="I199" s="22"/>
-    </row>
-    <row r="200" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="K199" s="10"/>
+    </row>
+    <row r="200" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B200" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
       </c>
+      <c r="E200" s="26" t="s">
+        <v>239</v>
+      </c>
       <c r="F200" s="22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I200" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="K200" s="10"/>
+    </row>
+    <row r="201" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B201" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D201" s="1">
         <v>1</v>
       </c>
+      <c r="E201" s="26" t="s">
+        <v>240</v>
+      </c>
       <c r="F201" s="22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I201" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="K201" s="10"/>
+    </row>
+    <row r="202" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B202" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
       </c>
+      <c r="E202" s="26" t="s">
+        <v>241</v>
+      </c>
       <c r="F202" s="22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I202" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="K202" s="10"/>
+    </row>
+    <row r="203" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B203" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
       </c>
+      <c r="E203" s="26" t="s">
+        <v>242</v>
+      </c>
       <c r="F203" s="22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I203" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="K203" s="10"/>
+    </row>
+    <row r="204" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B204" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
       </c>
+      <c r="E204" s="26" t="s">
+        <v>243</v>
+      </c>
       <c r="F204" s="22" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I204" s="22" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+      <c r="K204" s="10"/>
+    </row>
+    <row r="205" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B205" s="26" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
       </c>
+      <c r="E205" s="26" t="s">
+        <v>244</v>
+      </c>
       <c r="F205" s="22" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I205" s="22" t="s">
-        <v>188</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K205" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/deployment/Omaha_Cal_Info_CE09OSSM_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSSM_00001.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1050" yWindow="1470" windowWidth="12720" windowHeight="6915" tabRatio="766" activeTab="1"/>
+    <workbookView xWindow="15920" yWindow="1420" windowWidth="19080" windowHeight="13760" tabRatio="766" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="2" r:id="rId1"/>
@@ -26,7 +21,12 @@
     <definedName name="_FilterDatabase_0">[1]Moorings!#REF!</definedName>
     <definedName name="_FilterDatabase_0_0_0">[1]Moorings!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1027,16 +1027,16 @@
     </border>
     <border>
       <left style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,7 +1422,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Read Me"/>
@@ -1481,7 +1481,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1516,7 +1516,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1727,30 +1727,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="18" customWidth="1"/>
     <col min="2" max="2" width="16" style="18" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="18" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="19" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="11.85546875" style="18" customWidth="1"/>
-    <col min="12" max="12" width="13.28515625" style="18" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.85546875" style="18"/>
+    <col min="4" max="4" width="15.6640625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="19" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" style="18" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="18" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="16" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="16" customFormat="1" ht="28">
       <c r="A1" s="11" t="s">
         <v>198</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="26" t="s">
         <v>200</v>
       </c>
@@ -1832,27 +1832,32 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" customFormat="1">
       <c r="A4" s="26"/>
     </row>
-    <row r="5" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" customFormat="1">
       <c r="A5" s="26"/>
     </row>
-    <row r="6" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" customFormat="1">
       <c r="A6" s="26"/>
     </row>
-    <row r="7" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" customFormat="1">
       <c r="A7" s="26"/>
     </row>
-    <row r="8" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" customFormat="1">
       <c r="A8" s="26"/>
     </row>
-    <row r="9" spans="1:14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" customFormat="1">
       <c r="A9" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1860,26 +1865,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R226" sqref="Q225:R226"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="1" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="28">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1913,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1916,7 +1921,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
@@ -1939,11 +1944,11 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" s="10" customFormat="1">
       <c r="F4" s="22"/>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="1:16" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" s="10" customFormat="1">
       <c r="A5" s="26" t="s">
         <v>193</v>
       </c>
@@ -1964,11 +1969,11 @@
       </c>
       <c r="I5" s="22"/>
     </row>
-    <row r="6" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" s="10" customFormat="1">
       <c r="F6" s="22"/>
       <c r="I6" s="22"/>
     </row>
-    <row r="7" spans="1:16" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" s="10" customFormat="1">
       <c r="A7" s="26" t="s">
         <v>194</v>
       </c>
@@ -1989,12 +1994,12 @@
       </c>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16">
       <c r="G8" s="10"/>
       <c r="K8" s="10"/>
       <c r="P8" s="10"/>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>113</v>
       </c>
@@ -2023,7 +2028,7 @@
       <c r="K9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
         <v>113</v>
       </c>
@@ -2052,7 +2057,7 @@
       <c r="K10" s="10"/>
       <c r="P10" s="10"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>113</v>
       </c>
@@ -2081,7 +2086,7 @@
       <c r="K11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>113</v>
       </c>
@@ -2110,7 +2115,7 @@
       <c r="K12" s="10"/>
       <c r="P12" s="10"/>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16">
       <c r="A13" s="1" t="s">
         <v>113</v>
       </c>
@@ -2139,7 +2144,7 @@
       <c r="K13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16">
       <c r="A14" s="1" t="s">
         <v>113</v>
       </c>
@@ -2168,7 +2173,7 @@
       <c r="K14" s="10"/>
       <c r="P14" s="10"/>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
         <v>113</v>
       </c>
@@ -2199,7 +2204,7 @@
       <c r="K15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>113</v>
       </c>
@@ -2230,7 +2235,7 @@
       <c r="K16" s="10"/>
       <c r="P16" s="10"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>113</v>
       </c>
@@ -2261,12 +2266,12 @@
       <c r="K17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16">
       <c r="G18" s="10"/>
       <c r="K18" s="10"/>
       <c r="P18" s="10"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>133</v>
       </c>
@@ -2292,12 +2297,12 @@
       <c r="K19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16">
       <c r="G20" s="10"/>
       <c r="K20" s="10"/>
       <c r="P20" s="10"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16">
       <c r="A21" s="1" t="s">
         <v>114</v>
       </c>
@@ -2325,7 +2330,7 @@
       <c r="K21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16">
       <c r="A22" s="1" t="s">
         <v>114</v>
       </c>
@@ -2353,12 +2358,12 @@
       <c r="K22" s="10"/>
       <c r="P22" s="10"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16">
       <c r="G23" s="10"/>
       <c r="K23" s="10"/>
       <c r="P23" s="10"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16">
       <c r="A24" s="1" t="s">
         <v>134</v>
       </c>
@@ -2386,7 +2391,7 @@
       <c r="K24" s="10"/>
       <c r="P24" s="10"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16">
       <c r="A25" s="1" t="s">
         <v>134</v>
       </c>
@@ -2414,8 +2419,8 @@
       <c r="K25" s="10"/>
       <c r="P25" s="10"/>
     </row>
-    <row r="26" spans="1:16" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="10" customFormat="1"/>
+    <row r="27" spans="1:16">
       <c r="A27" s="1" t="s">
         <v>115</v>
       </c>
@@ -2443,7 +2448,7 @@
       <c r="K27" s="10"/>
       <c r="P27" s="10"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16">
       <c r="A28" s="1" t="s">
         <v>115</v>
       </c>
@@ -2471,12 +2476,12 @@
       <c r="K28" s="10"/>
       <c r="P28" s="10"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16">
       <c r="G29" s="10"/>
       <c r="K29" s="10"/>
       <c r="P29" s="10"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16">
       <c r="A30" s="1" t="s">
         <v>116</v>
       </c>
@@ -2504,7 +2509,7 @@
       <c r="K30" s="10"/>
       <c r="P30" s="10"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16">
       <c r="A31" s="1" t="s">
         <v>116</v>
       </c>
@@ -2532,7 +2537,7 @@
       <c r="K31" s="10"/>
       <c r="P31" s="10"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16">
       <c r="A32" s="1" t="s">
         <v>116</v>
       </c>
@@ -2560,7 +2565,7 @@
       <c r="K32" s="10"/>
       <c r="P32" s="10"/>
     </row>
-    <row r="33" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16">
       <c r="A33" s="1" t="s">
         <v>116</v>
       </c>
@@ -2588,7 +2593,7 @@
       <c r="K33" s="10"/>
       <c r="P33" s="10"/>
     </row>
-    <row r="34" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16">
       <c r="A34" s="1" t="s">
         <v>116</v>
       </c>
@@ -2616,7 +2621,7 @@
       <c r="K34" s="10"/>
       <c r="P34" s="10"/>
     </row>
-    <row r="35" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16">
       <c r="A35" s="1" t="s">
         <v>116</v>
       </c>
@@ -2644,7 +2649,7 @@
       <c r="K35" s="10"/>
       <c r="P35" s="10"/>
     </row>
-    <row r="36" spans="1:16" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" s="10" customFormat="1">
       <c r="A36" s="10" t="s">
         <v>116</v>
       </c>
@@ -2673,12 +2678,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16">
       <c r="G37" s="10"/>
       <c r="K37" s="10"/>
       <c r="P37" s="10"/>
     </row>
-    <row r="38" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16">
       <c r="A38" s="1" t="s">
         <v>117</v>
       </c>
@@ -2705,7 +2710,7 @@
       </c>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -2732,7 +2737,7 @@
       </c>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16">
       <c r="A40" s="1" t="s">
         <v>117</v>
       </c>
@@ -2759,7 +2764,7 @@
       </c>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16">
       <c r="A41" s="1" t="s">
         <v>117</v>
       </c>
@@ -2786,7 +2791,7 @@
       </c>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16">
       <c r="A42" s="1" t="s">
         <v>117</v>
       </c>
@@ -2813,7 +2818,7 @@
       </c>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -2840,7 +2845,7 @@
       </c>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:16" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" s="10" customFormat="1">
       <c r="A44" s="10" t="s">
         <v>117</v>
       </c>
@@ -2869,11 +2874,11 @@
         <v>111</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16">
       <c r="G45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16">
       <c r="A46" s="1" t="s">
         <v>118</v>
       </c>
@@ -2900,7 +2905,7 @@
       </c>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16">
       <c r="A47" s="1" t="s">
         <v>118</v>
       </c>
@@ -2927,7 +2932,7 @@
       </c>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16">
       <c r="A48" s="1" t="s">
         <v>118</v>
       </c>
@@ -2954,7 +2959,7 @@
       </c>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
         <v>118</v>
       </c>
@@ -2981,7 +2986,7 @@
       </c>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
         <v>118</v>
       </c>
@@ -3008,7 +3013,7 @@
       </c>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
         <v>118</v>
       </c>
@@ -3035,7 +3040,7 @@
       </c>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
         <v>118</v>
       </c>
@@ -3062,7 +3067,7 @@
       </c>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="1:11" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" s="6" customFormat="1">
       <c r="A53" s="6" t="s">
         <v>118</v>
       </c>
@@ -3089,11 +3094,11 @@
       </c>
       <c r="K53" s="10"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11">
       <c r="G54" s="10"/>
       <c r="K54" s="10"/>
     </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11">
       <c r="A55" s="10" t="s">
         <v>232</v>
       </c>
@@ -3120,7 +3125,7 @@
       </c>
       <c r="K55" s="10"/>
     </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11">
       <c r="A56" s="10" t="s">
         <v>232</v>
       </c>
@@ -3147,7 +3152,7 @@
       </c>
       <c r="K56" s="10"/>
     </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11">
       <c r="A57" s="10" t="s">
         <v>232</v>
       </c>
@@ -3174,7 +3179,7 @@
       </c>
       <c r="K57" s="10"/>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11">
       <c r="A58" s="10" t="s">
         <v>232</v>
       </c>
@@ -3201,7 +3206,7 @@
       </c>
       <c r="K58" s="10"/>
     </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11">
       <c r="A59" s="10" t="s">
         <v>232</v>
       </c>
@@ -3228,7 +3233,7 @@
       </c>
       <c r="K59" s="10"/>
     </row>
-    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11">
       <c r="A60" s="10" t="s">
         <v>232</v>
       </c>
@@ -3255,7 +3260,7 @@
       </c>
       <c r="K60" s="10"/>
     </row>
-    <row r="61" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11">
       <c r="A61" s="10" t="s">
         <v>232</v>
       </c>
@@ -3282,7 +3287,7 @@
       </c>
       <c r="K61" s="10"/>
     </row>
-    <row r="62" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11">
       <c r="A62" s="10" t="s">
         <v>232</v>
       </c>
@@ -3309,11 +3314,11 @@
       </c>
       <c r="K62" s="10"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11">
       <c r="G63" s="10"/>
       <c r="K63" s="10"/>
     </row>
-    <row r="64" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
         <v>119</v>
       </c>
@@ -3340,7 +3345,7 @@
       </c>
       <c r="K64" s="10"/>
     </row>
-    <row r="65" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
         <v>119</v>
       </c>
@@ -3367,7 +3372,7 @@
       </c>
       <c r="K65" s="10"/>
     </row>
-    <row r="66" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
         <v>119</v>
       </c>
@@ -3394,7 +3399,7 @@
       </c>
       <c r="K66" s="10"/>
     </row>
-    <row r="67" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
         <v>119</v>
       </c>
@@ -3421,7 +3426,7 @@
       </c>
       <c r="K67" s="10"/>
     </row>
-    <row r="68" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
         <v>119</v>
       </c>
@@ -3448,7 +3453,7 @@
       </c>
       <c r="K68" s="10"/>
     </row>
-    <row r="69" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
         <v>119</v>
       </c>
@@ -3475,7 +3480,7 @@
       </c>
       <c r="K69" s="10"/>
     </row>
-    <row r="70" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
         <v>119</v>
       </c>
@@ -3498,14 +3503,14 @@
         <v>107</v>
       </c>
       <c r="H70" s="1">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>111</v>
       </c>
       <c r="K70" s="10"/>
     </row>
-    <row r="71" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
         <v>119</v>
       </c>
@@ -3535,7 +3540,7 @@
       </c>
       <c r="K71" s="10"/>
     </row>
-    <row r="72" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
         <v>119</v>
       </c>
@@ -3558,14 +3563,14 @@
         <v>109</v>
       </c>
       <c r="H72" s="1">
-        <v>1.08</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="I72" s="1" t="s">
         <v>111</v>
       </c>
       <c r="K72" s="10"/>
     </row>
-    <row r="73" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
         <v>119</v>
       </c>
@@ -3595,11 +3600,11 @@
       </c>
       <c r="K73" s="10"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11">
       <c r="G74" s="10"/>
       <c r="K74" s="10"/>
     </row>
-    <row r="75" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
         <v>120</v>
       </c>
@@ -3626,7 +3631,7 @@
       </c>
       <c r="K75" s="10"/>
     </row>
-    <row r="76" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" s="8" customFormat="1">
       <c r="A76" s="8" t="s">
         <v>120</v>
       </c>
@@ -3653,7 +3658,7 @@
       </c>
       <c r="K76" s="10"/>
     </row>
-    <row r="77" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" s="8" customFormat="1">
       <c r="A77" s="8" t="s">
         <v>120</v>
       </c>
@@ -3680,7 +3685,7 @@
       </c>
       <c r="K77" s="10"/>
     </row>
-    <row r="78" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" s="8" customFormat="1">
       <c r="A78" s="8" t="s">
         <v>120</v>
       </c>
@@ -3707,7 +3712,7 @@
       </c>
       <c r="K78" s="10"/>
     </row>
-    <row r="79" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" s="8" customFormat="1">
       <c r="A79" s="8" t="s">
         <v>120</v>
       </c>
@@ -3734,7 +3739,7 @@
       </c>
       <c r="K79" s="10"/>
     </row>
-    <row r="80" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" s="8" customFormat="1">
       <c r="A80" s="8" t="s">
         <v>120</v>
       </c>
@@ -3761,7 +3766,7 @@
       </c>
       <c r="K80" s="10"/>
     </row>
-    <row r="81" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="8" customFormat="1">
       <c r="A81" s="8" t="s">
         <v>120</v>
       </c>
@@ -3788,7 +3793,7 @@
       </c>
       <c r="K81" s="10"/>
     </row>
-    <row r="82" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" s="8" customFormat="1">
       <c r="A82" s="8" t="s">
         <v>120</v>
       </c>
@@ -3815,7 +3820,7 @@
       </c>
       <c r="K82" s="10"/>
     </row>
-    <row r="83" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" s="8" customFormat="1">
       <c r="A83" s="8" t="s">
         <v>120</v>
       </c>
@@ -3842,7 +3847,7 @@
       </c>
       <c r="K83" s="10"/>
     </row>
-    <row r="84" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" s="8" customFormat="1">
       <c r="A84" s="8" t="s">
         <v>120</v>
       </c>
@@ -3869,7 +3874,7 @@
       </c>
       <c r="K84" s="10"/>
     </row>
-    <row r="85" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" s="8" customFormat="1">
       <c r="A85" s="8" t="s">
         <v>120</v>
       </c>
@@ -3896,7 +3901,7 @@
       </c>
       <c r="K85" s="10"/>
     </row>
-    <row r="86" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" s="8" customFormat="1">
       <c r="A86" s="8" t="s">
         <v>120</v>
       </c>
@@ -3923,7 +3928,7 @@
       </c>
       <c r="K86" s="10"/>
     </row>
-    <row r="87" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" s="8" customFormat="1">
       <c r="A87" s="8" t="s">
         <v>120</v>
       </c>
@@ -3950,7 +3955,7 @@
       </c>
       <c r="K87" s="10"/>
     </row>
-    <row r="88" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" s="8" customFormat="1">
       <c r="A88" s="8" t="s">
         <v>120</v>
       </c>
@@ -3977,7 +3982,7 @@
       </c>
       <c r="K88" s="10"/>
     </row>
-    <row r="89" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" s="8" customFormat="1">
       <c r="A89" s="8" t="s">
         <v>120</v>
       </c>
@@ -4004,7 +4009,7 @@
       </c>
       <c r="K89" s="10"/>
     </row>
-    <row r="90" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" s="8" customFormat="1">
       <c r="A90" s="8" t="s">
         <v>120</v>
       </c>
@@ -4031,7 +4036,7 @@
       </c>
       <c r="K90" s="10"/>
     </row>
-    <row r="91" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" s="8" customFormat="1">
       <c r="A91" s="8" t="s">
         <v>120</v>
       </c>
@@ -4058,7 +4063,7 @@
       </c>
       <c r="K91" s="10"/>
     </row>
-    <row r="92" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" s="8" customFormat="1">
       <c r="A92" s="8" t="s">
         <v>120</v>
       </c>
@@ -4085,7 +4090,7 @@
       </c>
       <c r="K92" s="10"/>
     </row>
-    <row r="93" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" s="8" customFormat="1">
       <c r="A93" s="8" t="s">
         <v>120</v>
       </c>
@@ -4112,7 +4117,7 @@
       </c>
       <c r="K93" s="10"/>
     </row>
-    <row r="94" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" s="8" customFormat="1">
       <c r="A94" s="8" t="s">
         <v>120</v>
       </c>
@@ -4139,7 +4144,7 @@
       </c>
       <c r="K94" s="10"/>
     </row>
-    <row r="95" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" s="8" customFormat="1">
       <c r="A95" s="8" t="s">
         <v>120</v>
       </c>
@@ -4166,7 +4171,7 @@
       </c>
       <c r="K95" s="10"/>
     </row>
-    <row r="96" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" s="8" customFormat="1">
       <c r="A96" s="8" t="s">
         <v>120</v>
       </c>
@@ -4193,7 +4198,7 @@
       </c>
       <c r="K96" s="10"/>
     </row>
-    <row r="97" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" s="8" customFormat="1">
       <c r="A97" s="8" t="s">
         <v>120</v>
       </c>
@@ -4220,7 +4225,7 @@
       </c>
       <c r="K97" s="10"/>
     </row>
-    <row r="98" spans="1:11" s="8" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" s="8" customFormat="1">
       <c r="A98" s="8" t="s">
         <v>120</v>
       </c>
@@ -4247,8 +4252,8 @@
       </c>
       <c r="K98" s="10"/>
     </row>
-    <row r="99" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" s="10" customFormat="1"/>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
         <v>135</v>
       </c>
@@ -4275,7 +4280,7 @@
       </c>
       <c r="K100" s="10"/>
     </row>
-    <row r="101" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
         <v>135</v>
       </c>
@@ -4302,7 +4307,7 @@
       </c>
       <c r="K101" s="10"/>
     </row>
-    <row r="102" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" s="10" customFormat="1">
       <c r="A102" s="10" t="s">
         <v>135</v>
       </c>
@@ -4328,7 +4333,7 @@
         <v>1.2886E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" s="10" customFormat="1">
       <c r="A103" s="10" t="s">
         <v>135</v>
       </c>
@@ -4354,7 +4359,7 @@
         <v>2.6747309999999999E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" s="10" customFormat="1">
       <c r="A104" s="10" t="s">
         <v>135</v>
       </c>
@@ -4380,7 +4385,7 @@
         <v>-5.8357599999999998E-7</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" s="10" customFormat="1">
       <c r="A105" s="10" t="s">
         <v>135</v>
       </c>
@@ -4406,7 +4411,7 @@
         <v>1.5942049999999999E-7</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" s="10" customFormat="1">
       <c r="A106" s="10" t="s">
         <v>135</v>
       </c>
@@ -4432,7 +4437,7 @@
         <v>-63.97</v>
       </c>
     </row>
-    <row r="107" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" s="10" customFormat="1">
       <c r="A107" s="10" t="s">
         <v>135</v>
       </c>
@@ -4458,7 +4463,7 @@
         <v>53.352960000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" s="10" customFormat="1">
       <c r="A108" s="10" t="s">
         <v>135</v>
       </c>
@@ -4484,7 +4489,7 @@
         <v>-0.60973619999999995</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" s="10" customFormat="1">
       <c r="A109" s="10" t="s">
         <v>135</v>
       </c>
@@ -4510,7 +4515,7 @@
         <v>524536.69999999995</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" s="10" customFormat="1">
       <c r="A110" s="10" t="s">
         <v>135</v>
       </c>
@@ -4536,7 +4541,7 @@
         <v>-60.361229999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" s="10" customFormat="1">
       <c r="A111" s="10" t="s">
         <v>135</v>
       </c>
@@ -4562,7 +4567,7 @@
         <v>0.93277659999999996</v>
       </c>
     </row>
-    <row r="112" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" s="10" customFormat="1">
       <c r="A112" s="10" t="s">
         <v>135</v>
       </c>
@@ -4588,7 +4593,7 @@
         <v>24.888870000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" s="10" customFormat="1">
       <c r="A113" s="10" t="s">
         <v>135</v>
       </c>
@@ -4614,7 +4619,7 @@
         <v>-6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" s="10" customFormat="1">
       <c r="A114" s="10" t="s">
         <v>135</v>
       </c>
@@ -4640,7 +4645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" s="10" customFormat="1">
       <c r="A115" s="10" t="s">
         <v>135</v>
       </c>
@@ -4666,7 +4671,7 @@
         <v>-2.2917869999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" s="10" customFormat="1">
       <c r="A116" s="10" t="s">
         <v>135</v>
       </c>
@@ -4692,7 +4697,7 @@
         <v>2.6512390000000001E-3</v>
       </c>
     </row>
-    <row r="117" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" s="10" customFormat="1">
       <c r="A117" s="10" t="s">
         <v>135</v>
       </c>
@@ -4718,7 +4723,7 @@
         <v>1.57055E-11</v>
       </c>
     </row>
-    <row r="118" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" s="10" customFormat="1">
       <c r="A118" s="10" t="s">
         <v>135</v>
       </c>
@@ -4744,7 +4749,7 @@
         <v>-0.98847790000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" s="10" customFormat="1">
       <c r="A119" s="10" t="s">
         <v>135</v>
       </c>
@@ -4770,7 +4775,7 @@
         <v>0.14048479999999999</v>
       </c>
     </row>
-    <row r="120" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" s="10" customFormat="1">
       <c r="A120" s="10" t="s">
         <v>135</v>
       </c>
@@ -4796,7 +4801,7 @@
         <v>-5.8074639999999996E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" s="10" customFormat="1">
       <c r="A121" s="10" t="s">
         <v>135</v>
       </c>
@@ -4822,7 +4827,7 @@
         <v>5.740902E-5</v>
       </c>
     </row>
-    <row r="122" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" s="10" customFormat="1">
       <c r="A122" s="10" t="s">
         <v>135</v>
       </c>
@@ -4848,7 +4853,7 @@
         <v>-9.5700000000000003E-8</v>
       </c>
     </row>
-    <row r="123" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" s="10" customFormat="1">
       <c r="A123" s="10" t="s">
         <v>135</v>
       </c>
@@ -4874,11 +4879,11 @@
         <v>3.2499999999999998E-6</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11">
       <c r="G124" s="10"/>
       <c r="K124" s="10"/>
     </row>
-    <row r="125" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11">
       <c r="A125" s="1" t="s">
         <v>121</v>
       </c>
@@ -4905,7 +4910,7 @@
       </c>
       <c r="K125" s="10"/>
     </row>
-    <row r="126" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11">
       <c r="A126" s="1" t="s">
         <v>121</v>
       </c>
@@ -4932,7 +4937,7 @@
       </c>
       <c r="K126" s="10"/>
     </row>
-    <row r="127" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11">
       <c r="A127" s="1" t="s">
         <v>121</v>
       </c>
@@ -4959,11 +4964,11 @@
       </c>
       <c r="K127" s="10"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11">
       <c r="G128" s="10"/>
       <c r="K128" s="10"/>
     </row>
-    <row r="129" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11">
       <c r="A129" s="1" t="s">
         <v>229</v>
       </c>
@@ -4990,7 +4995,7 @@
       </c>
       <c r="K129" s="10"/>
     </row>
-    <row r="130" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11">
       <c r="A130" s="10" t="s">
         <v>229</v>
       </c>
@@ -5017,7 +5022,7 @@
       </c>
       <c r="K130" s="10"/>
     </row>
-    <row r="131" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11">
       <c r="A131" s="10" t="s">
         <v>229</v>
       </c>
@@ -5044,11 +5049,11 @@
       </c>
       <c r="K131" s="10"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11">
       <c r="G132" s="10"/>
       <c r="K132" s="10"/>
     </row>
-    <row r="133" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11">
       <c r="A133" s="10" t="s">
         <v>230</v>
       </c>
@@ -5078,7 +5083,7 @@
       </c>
       <c r="K133" s="10"/>
     </row>
-    <row r="134" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11">
       <c r="A134" s="10" t="s">
         <v>230</v>
       </c>
@@ -5108,7 +5113,7 @@
       </c>
       <c r="K134" s="10"/>
     </row>
-    <row r="135" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11">
       <c r="A135" s="10" t="s">
         <v>230</v>
       </c>
@@ -5135,7 +5140,7 @@
       </c>
       <c r="K135" s="10"/>
     </row>
-    <row r="136" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11">
       <c r="A136" s="10" t="s">
         <v>230</v>
       </c>
@@ -5162,7 +5167,7 @@
       </c>
       <c r="K136" s="10"/>
     </row>
-    <row r="137" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11">
       <c r="A137" s="10" t="s">
         <v>230</v>
       </c>
@@ -5189,7 +5194,7 @@
       </c>
       <c r="K137" s="10"/>
     </row>
-    <row r="138" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11">
       <c r="A138" s="10" t="s">
         <v>230</v>
       </c>
@@ -5216,7 +5221,7 @@
       </c>
       <c r="K138" s="10"/>
     </row>
-    <row r="139" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11">
       <c r="A139" s="10" t="s">
         <v>230</v>
       </c>
@@ -5243,10 +5248,10 @@
       </c>
       <c r="K139" s="10"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11">
       <c r="K140" s="10"/>
     </row>
-    <row r="141" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11">
       <c r="A141" s="10" t="s">
         <v>231</v>
       </c>
@@ -5273,7 +5278,7 @@
       </c>
       <c r="K141" s="10"/>
     </row>
-    <row r="142" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11">
       <c r="A142" s="10" t="s">
         <v>231</v>
       </c>
@@ -5300,7 +5305,7 @@
       </c>
       <c r="K142" s="10"/>
     </row>
-    <row r="143" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11">
       <c r="A143" s="10" t="s">
         <v>231</v>
       </c>
@@ -5327,10 +5332,10 @@
       </c>
       <c r="K143" s="10"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11">
       <c r="K144" s="10"/>
     </row>
-    <row r="145" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" s="10" customFormat="1">
       <c r="A145" s="10" t="s">
         <v>136</v>
       </c>
@@ -5356,7 +5361,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" s="10" customFormat="1">
       <c r="A146" s="10" t="s">
         <v>136</v>
       </c>
@@ -5382,7 +5387,7 @@
         <v>46.853848333333332</v>
       </c>
     </row>
-    <row r="147" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" s="10" customFormat="1">
       <c r="A147" s="10" t="s">
         <v>136</v>
       </c>
@@ -5408,7 +5413,7 @@
         <v>-124.95838333333333</v>
       </c>
     </row>
-    <row r="148" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" s="10" customFormat="1">
       <c r="A148" s="10" t="s">
         <v>136</v>
       </c>
@@ -5434,7 +5439,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="149" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" s="10" customFormat="1">
       <c r="A149" s="10" t="s">
         <v>136</v>
       </c>
@@ -5460,7 +5465,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" s="10" customFormat="1">
       <c r="A150" s="10" t="s">
         <v>136</v>
       </c>
@@ -5486,7 +5491,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="151" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" s="10" customFormat="1">
       <c r="A151" s="10" t="s">
         <v>136</v>
       </c>
@@ -5512,8 +5517,8 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="152" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" s="10" customFormat="1"/>
+    <row r="153" spans="1:11">
       <c r="A153" s="1" t="s">
         <v>137</v>
       </c>
@@ -5540,7 +5545,7 @@
       </c>
       <c r="K153" s="10"/>
     </row>
-    <row r="154" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11">
       <c r="A154" s="1" t="s">
         <v>137</v>
       </c>
@@ -5567,7 +5572,7 @@
       </c>
       <c r="K154" s="10"/>
     </row>
-    <row r="155" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11">
       <c r="A155" s="1" t="s">
         <v>137</v>
       </c>
@@ -5594,7 +5599,7 @@
       </c>
       <c r="K155" s="10"/>
     </row>
-    <row r="156" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11">
       <c r="A156" s="1" t="s">
         <v>137</v>
       </c>
@@ -5621,7 +5626,7 @@
       </c>
       <c r="K156" s="10"/>
     </row>
-    <row r="157" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11">
       <c r="A157" s="1" t="s">
         <v>137</v>
       </c>
@@ -5648,7 +5653,7 @@
       </c>
       <c r="K157" s="10"/>
     </row>
-    <row r="158" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11">
       <c r="A158" s="1" t="s">
         <v>137</v>
       </c>
@@ -5675,7 +5680,7 @@
       </c>
       <c r="K158" s="10"/>
     </row>
-    <row r="159" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11">
       <c r="A159" s="1" t="s">
         <v>137</v>
       </c>
@@ -5702,7 +5707,7 @@
       </c>
       <c r="K159" s="10"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11">
       <c r="A160" s="10"/>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -5710,7 +5715,7 @@
       <c r="G160" s="10"/>
       <c r="K160" s="10"/>
     </row>
-    <row r="161" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" customFormat="1">
       <c r="A161" s="10" t="s">
         <v>122</v>
       </c>
@@ -5737,7 +5742,7 @@
       </c>
       <c r="K161" s="10"/>
     </row>
-    <row r="162" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" customFormat="1">
       <c r="A162" s="10" t="s">
         <v>122</v>
       </c>
@@ -5764,12 +5769,12 @@
       </c>
       <c r="K162" s="10"/>
     </row>
-    <row r="163" spans="1:11" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" customFormat="1">
       <c r="B163" s="26"/>
       <c r="E163" s="26"/>
       <c r="K163" s="10"/>
     </row>
-    <row r="164" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11">
       <c r="A164" s="1" t="s">
         <v>138</v>
       </c>
@@ -5796,7 +5801,7 @@
       </c>
       <c r="K164" s="10"/>
     </row>
-    <row r="165" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11">
       <c r="A165" s="1" t="s">
         <v>138</v>
       </c>
@@ -5823,7 +5828,7 @@
       </c>
       <c r="K165" s="10"/>
     </row>
-    <row r="166" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11">
       <c r="A166" s="1" t="s">
         <v>138</v>
       </c>
@@ -5850,7 +5855,7 @@
       </c>
       <c r="K166" s="10"/>
     </row>
-    <row r="167" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11">
       <c r="A167" s="1" t="s">
         <v>138</v>
       </c>
@@ -5877,7 +5882,7 @@
       </c>
       <c r="K167" s="10"/>
     </row>
-    <row r="168" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11">
       <c r="A168" s="1" t="s">
         <v>138</v>
       </c>
@@ -5904,7 +5909,7 @@
       </c>
       <c r="K168" s="10"/>
     </row>
-    <row r="169" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11">
       <c r="A169" s="1" t="s">
         <v>138</v>
       </c>
@@ -5934,7 +5939,7 @@
       </c>
       <c r="K169" s="10"/>
     </row>
-    <row r="170" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11">
       <c r="A170" s="1" t="s">
         <v>138</v>
       </c>
@@ -5961,7 +5966,7 @@
       </c>
       <c r="K170" s="10"/>
     </row>
-    <row r="171" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11">
       <c r="A171" s="1" t="s">
         <v>138</v>
       </c>
@@ -5991,7 +5996,7 @@
       </c>
       <c r="K171" s="10"/>
     </row>
-    <row r="172" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11">
       <c r="A172" s="1" t="s">
         <v>138</v>
       </c>
@@ -6018,7 +6023,7 @@
       </c>
       <c r="K172" s="10"/>
     </row>
-    <row r="173" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11">
       <c r="A173" s="1" t="s">
         <v>138</v>
       </c>
@@ -6045,7 +6050,7 @@
       </c>
       <c r="K173" s="10"/>
     </row>
-    <row r="174" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11">
       <c r="A174" s="1" t="s">
         <v>138</v>
       </c>
@@ -6072,7 +6077,7 @@
       </c>
       <c r="K174" s="10"/>
     </row>
-    <row r="175" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11">
       <c r="A175" s="1" t="s">
         <v>138</v>
       </c>
@@ -6099,7 +6104,7 @@
       </c>
       <c r="K175" s="10"/>
     </row>
-    <row r="176" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11">
       <c r="A176" s="1" t="s">
         <v>138</v>
       </c>
@@ -6126,7 +6131,7 @@
       </c>
       <c r="K176" s="10"/>
     </row>
-    <row r="177" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11">
       <c r="A177" s="1" t="s">
         <v>138</v>
       </c>
@@ -6153,7 +6158,7 @@
       </c>
       <c r="K177" s="10"/>
     </row>
-    <row r="178" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11">
       <c r="A178" s="1" t="s">
         <v>138</v>
       </c>
@@ -6180,7 +6185,7 @@
       </c>
       <c r="K178" s="10"/>
     </row>
-    <row r="179" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11">
       <c r="A179" s="1" t="s">
         <v>138</v>
       </c>
@@ -6207,7 +6212,7 @@
       </c>
       <c r="K179" s="10"/>
     </row>
-    <row r="180" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" s="10" customFormat="1">
       <c r="A180" s="10" t="s">
         <v>138</v>
       </c>
@@ -6233,7 +6238,7 @@
         <v>838.8</v>
       </c>
     </row>
-    <row r="181" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" s="10" customFormat="1">
       <c r="A181" s="10" t="s">
         <v>138</v>
       </c>
@@ -6259,10 +6264,10 @@
         <v>12582.9</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11">
       <c r="K182" s="10"/>
     </row>
-    <row r="183" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11">
       <c r="A183" s="1" t="s">
         <v>123</v>
       </c>
@@ -6289,7 +6294,7 @@
       </c>
       <c r="K183" s="10"/>
     </row>
-    <row r="184" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11">
       <c r="A184" s="1" t="s">
         <v>123</v>
       </c>
@@ -6316,7 +6321,7 @@
       </c>
       <c r="K184" s="10"/>
     </row>
-    <row r="185" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11">
       <c r="A185" s="1" t="s">
         <v>123</v>
       </c>
@@ -6343,7 +6348,7 @@
       </c>
       <c r="K185" s="10"/>
     </row>
-    <row r="186" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11">
       <c r="A186" s="1" t="s">
         <v>123</v>
       </c>
@@ -6370,7 +6375,7 @@
       </c>
       <c r="K186" s="10"/>
     </row>
-    <row r="187" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11">
       <c r="A187" s="1" t="s">
         <v>123</v>
       </c>
@@ -6397,7 +6402,7 @@
       </c>
       <c r="K187" s="10"/>
     </row>
-    <row r="188" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11">
       <c r="A188" s="1" t="s">
         <v>123</v>
       </c>
@@ -6424,7 +6429,7 @@
       </c>
       <c r="K188" s="10"/>
     </row>
-    <row r="189" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11">
       <c r="A189" s="1" t="s">
         <v>123</v>
       </c>
@@ -6451,7 +6456,7 @@
       </c>
       <c r="K189" s="10"/>
     </row>
-    <row r="190" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11">
       <c r="A190" s="1" t="s">
         <v>123</v>
       </c>
@@ -6478,10 +6483,10 @@
       </c>
       <c r="K190" s="10"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11">
       <c r="K191" s="10"/>
     </row>
-    <row r="192" spans="1:11" s="10" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" s="10" customFormat="1">
       <c r="A192" s="10" t="s">
         <v>192</v>
       </c>
@@ -6504,8 +6509,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="193" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" s="10" customFormat="1"/>
+    <row r="194" spans="1:11">
       <c r="A194" s="10" t="s">
         <v>191</v>
       </c>
@@ -6529,8 +6534,8 @@
       </c>
       <c r="K194" s="10"/>
     </row>
-    <row r="195" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" s="10" customFormat="1"/>
+    <row r="196" spans="1:11">
       <c r="A196" s="1" t="s">
         <v>124</v>
       </c>
@@ -6554,7 +6559,7 @@
       </c>
       <c r="K196" s="10"/>
     </row>
-    <row r="197" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11">
       <c r="A197" s="1" t="s">
         <v>125</v>
       </c>
@@ -6578,7 +6583,7 @@
       </c>
       <c r="K197" s="10"/>
     </row>
-    <row r="198" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11">
       <c r="A198" s="1" t="s">
         <v>126</v>
       </c>
@@ -6602,12 +6607,12 @@
       </c>
       <c r="K198" s="10"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11">
       <c r="F199" s="22"/>
       <c r="I199" s="22"/>
       <c r="K199" s="10"/>
     </row>
-    <row r="200" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11">
       <c r="A200" s="1" t="s">
         <v>127</v>
       </c>
@@ -6631,7 +6636,7 @@
       </c>
       <c r="K200" s="10"/>
     </row>
-    <row r="201" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11">
       <c r="A201" s="1" t="s">
         <v>128</v>
       </c>
@@ -6655,7 +6660,7 @@
       </c>
       <c r="K201" s="10"/>
     </row>
-    <row r="202" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11">
       <c r="A202" s="1" t="s">
         <v>129</v>
       </c>
@@ -6679,7 +6684,7 @@
       </c>
       <c r="K202" s="10"/>
     </row>
-    <row r="203" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11">
       <c r="A203" s="1" t="s">
         <v>130</v>
       </c>
@@ -6703,7 +6708,7 @@
       </c>
       <c r="K203" s="10"/>
     </row>
-    <row r="204" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11">
       <c r="A204" s="1" t="s">
         <v>131</v>
       </c>
@@ -6727,7 +6732,7 @@
       </c>
       <c r="K204" s="10"/>
     </row>
-    <row r="205" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11">
       <c r="A205" s="1" t="s">
         <v>132</v>
       </c>
@@ -6753,10 +6758,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
   <ignoredErrors>
     <ignoredError sqref="F194 F141:F143" numberStoredAsText="1"/>
   </ignoredErrors>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6764,18 +6774,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM84"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="C10" sqref="A1:AM80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="25">
         <v>-3.0170000000000002E-3</v>
       </c>
@@ -6894,7 +6904,7 @@
         <v>1.9599999999999999E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="25">
         <v>-2.6199999999999999E-3</v>
       </c>
@@ -7013,7 +7023,7 @@
         <v>9.59E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="25">
         <v>1.08E-3</v>
       </c>
@@ -7132,7 +7142,7 @@
         <v>-5.1060000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="25">
         <v>5.2709999999999996E-3</v>
       </c>
@@ -7251,7 +7261,7 @@
         <v>-8.9440000000000006E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="25">
         <v>8.0079999999999995E-3</v>
       </c>
@@ -7370,7 +7380,7 @@
         <v>-1.0677000000000001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="25">
         <v>9.8279999999999999E-3</v>
       </c>
@@ -7489,7 +7499,7 @@
         <v>-1.0921E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="25">
         <v>1.0015E-2</v>
       </c>
@@ -7608,7 +7618,7 @@
         <v>-1.1219E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="25">
         <v>7.7140000000000004E-3</v>
       </c>
@@ -7727,7 +7737,7 @@
         <v>-1.0883E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="25">
         <v>6.6360000000000004E-3</v>
       </c>
@@ -7846,7 +7856,7 @@
         <v>-8.6560000000000005E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="25">
         <v>6.4409999999999997E-3</v>
       </c>
@@ -7965,7 +7975,7 @@
         <v>-8.7069999999999995E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="A11" s="25">
         <v>5.836E-3</v>
       </c>
@@ -8084,7 +8094,7 @@
         <v>-8.1600000000000006E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="A12" s="25">
         <v>4.4489999999999998E-3</v>
       </c>
@@ -8203,7 +8213,7 @@
         <v>-7.0600000000000003E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="A13" s="25">
         <v>3.0730000000000002E-3</v>
       </c>
@@ -8322,7 +8332,7 @@
         <v>-6.2220000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="25">
         <v>2.7160000000000001E-3</v>
       </c>
@@ -8441,7 +8451,7 @@
         <v>-5.0679999999999996E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="25">
         <v>2.5219999999999999E-3</v>
       </c>
@@ -8560,7 +8570,7 @@
         <v>-4.8349999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="25">
         <v>1.5009999999999999E-3</v>
       </c>
@@ -8679,7 +8689,7 @@
         <v>-4.0229999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39">
       <c r="A17" s="25">
         <v>1.4920000000000001E-3</v>
       </c>
@@ -8798,7 +8808,7 @@
         <v>-3.408E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39">
       <c r="A18" s="25">
         <v>6.1899999999999998E-4</v>
       </c>
@@ -8917,7 +8927,7 @@
         <v>-3.042E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="A19" s="25">
         <v>3.2200000000000002E-4</v>
       </c>
@@ -9036,7 +9046,7 @@
         <v>-2.4499999999999999E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39">
       <c r="A20" s="25">
         <v>-1.03E-4</v>
       </c>
@@ -9155,7 +9165,7 @@
         <v>-2.0019999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39">
       <c r="A21" s="25">
         <v>-3.6400000000000001E-4</v>
       </c>
@@ -9274,7 +9284,7 @@
         <v>-1.7129999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39">
       <c r="A22" s="25">
         <v>-1.263E-3</v>
       </c>
@@ -9393,7 +9403,7 @@
         <v>-1.1460000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39">
       <c r="A23" s="25">
         <v>-1.1069999999999999E-3</v>
       </c>
@@ -9512,7 +9522,7 @@
         <v>-8.6399999999999997E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39">
       <c r="A24" s="25">
         <v>-1.511E-3</v>
       </c>
@@ -9631,7 +9641,7 @@
         <v>-4.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39">
       <c r="A25" s="25">
         <v>-1.779E-3</v>
       </c>
@@ -9750,7 +9760,7 @@
         <v>-2.8400000000000002E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39">
       <c r="A26" s="25">
         <v>-2.019E-3</v>
       </c>
@@ -9869,7 +9879,7 @@
         <v>2.3E-5</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39">
       <c r="A27" s="25">
         <v>-2.3530000000000001E-3</v>
       </c>
@@ -9988,7 +9998,7 @@
         <v>1.76E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39">
       <c r="A28" s="25">
         <v>-2.8389999999999999E-3</v>
       </c>
@@ -10107,7 +10117,7 @@
         <v>3.8499999999999998E-4</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39">
       <c r="A29" s="25">
         <v>-2.944E-3</v>
       </c>
@@ -10226,7 +10236,7 @@
         <v>5.2999999999999998E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39">
       <c r="A30" s="25">
         <v>-3.2469999999999999E-3</v>
       </c>
@@ -10345,7 +10355,7 @@
         <v>8.1999999999999998E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39">
       <c r="A31" s="25">
         <v>-3.5969999999999999E-3</v>
       </c>
@@ -10464,7 +10474,7 @@
         <v>8.9800000000000004E-4</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39">
       <c r="A32" s="25">
         <v>-3.6319999999999998E-3</v>
       </c>
@@ -10583,7 +10593,7 @@
         <v>1.049E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39">
       <c r="A33" s="25">
         <v>-3.9300000000000003E-3</v>
       </c>
@@ -10702,7 +10712,7 @@
         <v>1.078E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39">
       <c r="A34" s="25">
         <v>-3.986E-3</v>
       </c>
@@ -10821,7 +10831,7 @@
         <v>1.2489999999999999E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39">
       <c r="A35" s="25">
         <v>-3.8379999999999998E-3</v>
       </c>
@@ -10940,7 +10950,7 @@
         <v>1.2800000000000001E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39">
       <c r="A36" s="25">
         <v>-3.6819999999999999E-3</v>
       </c>
@@ -11059,7 +11069,7 @@
         <v>1.2539999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39">
       <c r="A37" s="25">
         <v>-3.4459999999999998E-3</v>
       </c>
@@ -11178,7 +11188,7 @@
         <v>1.1230000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39">
       <c r="A38" s="25">
         <v>-3.3830000000000002E-3</v>
       </c>
@@ -11297,7 +11307,7 @@
         <v>1.1440000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39">
       <c r="A39" s="25">
         <v>-3.4870000000000001E-3</v>
       </c>
@@ -11416,7 +11426,7 @@
         <v>9.0499999999999999E-4</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39">
       <c r="A40" s="25">
         <v>-3.5230000000000001E-3</v>
       </c>
@@ -11535,7 +11545,7 @@
         <v>6.8999999999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39">
       <c r="A41" s="25">
         <v>-3.5400000000000002E-3</v>
       </c>
@@ -11654,7 +11664,7 @@
         <v>4.4099999999999999E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39">
       <c r="A42" s="25">
         <v>-3.5260000000000001E-3</v>
       </c>
@@ -11773,7 +11783,7 @@
         <v>2.2100000000000001E-4</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39">
       <c r="A43" s="25">
         <v>-3.1700000000000001E-3</v>
       </c>
@@ -11892,7 +11902,7 @@
         <v>-6.9999999999999994E-5</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39">
       <c r="A44" s="25">
         <v>-3.026E-3</v>
       </c>
@@ -12011,7 +12021,7 @@
         <v>-3.0899999999999998E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39">
       <c r="A45" s="25">
         <v>-3.4710000000000001E-3</v>
       </c>
@@ -12130,7 +12140,7 @@
         <v>-6.8900000000000005E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39">
       <c r="A46" s="25">
         <v>-3.5869999999999999E-3</v>
       </c>
@@ -12249,7 +12259,7 @@
         <v>-5.4100000000000003E-4</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39">
       <c r="A47" s="25">
         <v>-3.6579999999999998E-3</v>
       </c>
@@ -12368,7 +12378,7 @@
         <v>-5.0900000000000001E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39">
       <c r="A48" s="25">
         <v>-3.722E-3</v>
       </c>
@@ -12487,7 +12497,7 @@
         <v>-4.5300000000000001E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39">
       <c r="A49" s="25">
         <v>-3.8739999999999998E-3</v>
       </c>
@@ -12606,7 +12616,7 @@
         <v>-3.77E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39">
       <c r="A50" s="25">
         <v>-3.9579999999999997E-3</v>
       </c>
@@ -12725,7 +12735,7 @@
         <v>-2.6499999999999999E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39">
       <c r="A51" s="25">
         <v>-4.1960000000000001E-3</v>
       </c>
@@ -12844,7 +12854,7 @@
         <v>-2.3800000000000001E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39">
       <c r="A52" s="25">
         <v>-4.326E-3</v>
       </c>
@@ -12963,7 +12973,7 @@
         <v>-1.8699999999999999E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39">
       <c r="A53" s="25">
         <v>-4.3759999999999997E-3</v>
       </c>
@@ -13082,7 +13092,7 @@
         <v>-1.4899999999999999E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39">
       <c r="A54" s="25">
         <v>-4.568E-3</v>
       </c>
@@ -13201,7 +13211,7 @@
         <v>-1.7100000000000001E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39">
       <c r="A55" s="25">
         <v>-4.7999999999999996E-3</v>
       </c>
@@ -13320,7 +13330,7 @@
         <v>-6.8999999999999997E-5</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39">
       <c r="A56" s="25">
         <v>-4.9020000000000001E-3</v>
       </c>
@@ -13439,7 +13449,7 @@
         <v>-3.4E-5</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39">
       <c r="A57" s="25">
         <v>-5.0000000000000001E-3</v>
       </c>
@@ -13558,7 +13568,7 @@
         <v>6.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39">
       <c r="A58" s="25">
         <v>-5.2339999999999999E-3</v>
       </c>
@@ -13677,7 +13687,7 @@
         <v>1.3799999999999999E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39">
       <c r="A59" s="25">
         <v>-5.4559999999999999E-3</v>
       </c>
@@ -13796,7 +13806,7 @@
         <v>1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39">
       <c r="A60" s="25">
         <v>-5.6379999999999998E-3</v>
       </c>
@@ -13915,7 +13925,7 @@
         <v>2.5599999999999999E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39">
       <c r="A61" s="25">
         <v>-5.8609999999999999E-3</v>
       </c>
@@ -14034,7 +14044,7 @@
         <v>3.2899999999999997E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39">
       <c r="A62" s="25">
         <v>-6.1349999999999998E-3</v>
       </c>
@@ -14153,7 +14163,7 @@
         <v>3.7500000000000001E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39">
       <c r="A63" s="25">
         <v>-6.4689999999999999E-3</v>
       </c>
@@ -14272,7 +14282,7 @@
         <v>4.9200000000000003E-4</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39">
       <c r="A64" s="25">
         <v>-6.6519999999999999E-3</v>
       </c>
@@ -14391,7 +14401,7 @@
         <v>5.13E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39">
       <c r="A65" s="25">
         <v>-6.7099999999999998E-3</v>
       </c>
@@ -14510,7 +14520,7 @@
         <v>5.2800000000000004E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39">
       <c r="A66" s="25">
         <v>-6.6109999999999997E-3</v>
       </c>
@@ -14629,7 +14639,7 @@
         <v>5.2400000000000005E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39">
       <c r="A67" s="25">
         <v>-6.3990000000000002E-3</v>
       </c>
@@ -14748,7 +14758,7 @@
         <v>4.86E-4</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39">
       <c r="A68" s="25">
         <v>-6.221E-3</v>
       </c>
@@ -14867,7 +14877,7 @@
         <v>4.8099999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39">
       <c r="A69" s="25">
         <v>-6.0130000000000001E-3</v>
       </c>
@@ -14986,7 +14996,7 @@
         <v>4.08E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39">
       <c r="A70" s="25">
         <v>-5.9649999999999998E-3</v>
       </c>
@@ -15105,7 +15115,7 @@
         <v>2.4000000000000001E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39">
       <c r="A71" s="25">
         <v>-5.7219999999999997E-3</v>
       </c>
@@ -15224,7 +15234,7 @@
         <v>1.21E-4</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39">
       <c r="A72" s="25">
         <v>-5.3639999999999998E-3</v>
       </c>
@@ -15343,7 +15353,7 @@
         <v>-2.0999999999999999E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39">
       <c r="A73" s="25">
         <v>-5.1729999999999996E-3</v>
       </c>
@@ -15462,7 +15472,7 @@
         <v>-1.7000000000000001E-4</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39">
       <c r="A74" s="25">
         <v>-5.2779999999999997E-3</v>
       </c>
@@ -15581,7 +15591,7 @@
         <v>-2.33E-4</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39">
       <c r="A75" s="25">
         <v>-5.5690000000000002E-3</v>
       </c>
@@ -15700,7 +15710,7 @@
         <v>-3.4699999999999998E-4</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39">
       <c r="A76" s="25">
         <v>-6.0959999999999999E-3</v>
       </c>
@@ -15819,7 +15829,7 @@
         <v>-4.1800000000000002E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39">
       <c r="A77" s="25">
         <v>-6.2989999999999999E-3</v>
       </c>
@@ -15938,7 +15948,7 @@
         <v>-3.8299999999999999E-4</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39">
       <c r="A78" s="25">
         <v>-6.6340000000000001E-3</v>
       </c>
@@ -16057,7 +16067,7 @@
         <v>-5.0799999999999999E-4</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39">
       <c r="A79" s="25">
         <v>-7.0619999999999997E-3</v>
       </c>
@@ -16176,7 +16186,7 @@
         <v>-4.1100000000000002E-4</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39">
       <c r="A80" s="25">
         <v>-6.5680000000000001E-3</v>
       </c>
@@ -16295,20 +16305,25 @@
         <v>-4.5100000000000001E-4</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="9"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="9"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="9"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1">
       <c r="A84" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -16316,19 +16331,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM83"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="50" workbookViewId="0">
       <selection activeCell="AA65" sqref="A1:AM80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="39" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="17" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="25" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="39" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="25">
         <v>1.1096E-2</v>
       </c>
@@ -16447,7 +16462,7 @@
         <v>-7.0870000000000004E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="A2" s="25">
         <v>1.9990000000000001E-2</v>
       </c>
@@ -16566,7 +16581,7 @@
         <v>-5.2059999999999997E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="A3" s="25">
         <v>1.8069000000000002E-2</v>
       </c>
@@ -16685,7 +16700,7 @@
         <v>-4.4130000000000003E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="A4" s="25">
         <v>1.5543E-2</v>
       </c>
@@ -16804,7 +16819,7 @@
         <v>-3.1679999999999998E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="A5" s="25">
         <v>1.5062000000000001E-2</v>
       </c>
@@ -16923,7 +16938,7 @@
         <v>-2.2780000000000001E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="A6" s="25">
         <v>1.3579000000000001E-2</v>
       </c>
@@ -17042,7 +17057,7 @@
         <v>-1.792E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="A7" s="25">
         <v>1.1405999999999999E-2</v>
       </c>
@@ -17161,7 +17176,7 @@
         <v>-1.2329999999999999E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="A8" s="25">
         <v>1.0219000000000001E-2</v>
       </c>
@@ -17280,7 +17295,7 @@
         <v>-1.3810000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="A9" s="25">
         <v>1.0685999999999999E-2</v>
       </c>
@@ -17399,7 +17414,7 @@
         <v>-1.951E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="A10" s="25">
         <v>1.0251E-2</v>
       </c>
@@ -17518,7 +17533,7 @@
         <v>-1.859E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="A11" s="25">
         <v>9.4439999999999993E-3</v>
       </c>
@@ -17637,7 +17652,7 @@
         <v>-7.9799999999999999E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="A12" s="25">
         <v>8.8450000000000004E-3</v>
       </c>
@@ -17756,7 +17771,7 @@
         <v>-6.3900000000000003E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="A13" s="25">
         <v>9.11E-3</v>
       </c>
@@ -17875,7 +17890,7 @@
         <v>-1.0269999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="A14" s="25">
         <v>9.3200000000000002E-3</v>
       </c>
@@ -17994,7 +18009,7 @@
         <v>-6.69E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="A15" s="25">
         <v>8.7039999999999999E-3</v>
       </c>
@@ -18113,7 +18128,7 @@
         <v>-1.26E-4</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="A16" s="25">
         <v>8.9110000000000005E-3</v>
       </c>
@@ -18232,7 +18247,7 @@
         <v>5.8299999999999997E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39">
       <c r="A17" s="25">
         <v>7.953E-3</v>
       </c>
@@ -18351,7 +18366,7 @@
         <v>8.4999999999999995E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39">
       <c r="A18" s="25">
         <v>9.7330000000000003E-3</v>
       </c>
@@ -18470,7 +18485,7 @@
         <v>2.0100000000000001E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39">
       <c r="A19" s="25">
         <v>1.0602E-2</v>
       </c>
@@ -18589,7 +18604,7 @@
         <v>1.2300000000000001E-4</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39">
       <c r="A20" s="25">
         <v>9.8809999999999992E-3</v>
       </c>
@@ -18708,7 +18723,7 @@
         <v>7.3800000000000005E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39">
       <c r="A21" s="25">
         <v>1.0196999999999999E-2</v>
       </c>
@@ -18827,7 +18842,7 @@
         <v>1.5299999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39">
       <c r="A22" s="25">
         <v>9.9019999999999993E-3</v>
       </c>
@@ -18946,7 +18961,7 @@
         <v>1.4170000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39">
       <c r="A23" s="25">
         <v>1.0081E-2</v>
       </c>
@@ -19065,7 +19080,7 @@
         <v>7.9699999999999997E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39">
       <c r="A24" s="25">
         <v>1.1207999999999999E-2</v>
       </c>
@@ -19184,7 +19199,7 @@
         <v>2.7300000000000002E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39">
       <c r="A25" s="25">
         <v>1.0865E-2</v>
       </c>
@@ -19303,7 +19318,7 @@
         <v>1.209E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39">
       <c r="A26" s="25">
         <v>9.8289999999999992E-3</v>
       </c>
@@ -19422,7 +19437,7 @@
         <v>2.0600000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39">
       <c r="A27" s="25">
         <v>9.6480000000000003E-3</v>
       </c>
@@ -19541,7 +19556,7 @@
         <v>2.2420000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39">
       <c r="A28" s="25">
         <v>9.7619999999999998E-3</v>
       </c>
@@ -19660,7 +19675,7 @@
         <v>1.5870000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39">
       <c r="A29" s="25">
         <v>1.0779E-2</v>
       </c>
@@ -19779,7 +19794,7 @@
         <v>6.2500000000000001E-4</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39">
       <c r="A30" s="25">
         <v>1.125E-2</v>
       </c>
@@ -19898,7 +19913,7 @@
         <v>6.87E-4</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39">
       <c r="A31" s="25">
         <v>1.0626E-2</v>
       </c>
@@ -20017,7 +20032,7 @@
         <v>1.549E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39">
       <c r="A32" s="25">
         <v>1.0435E-2</v>
       </c>
@@ -20136,7 +20151,7 @@
         <v>2.2690000000000002E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39">
       <c r="A33" s="25">
         <v>9.7730000000000004E-3</v>
       </c>
@@ -20255,7 +20270,7 @@
         <v>2.2699999999999999E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39">
       <c r="A34" s="25">
         <v>1.009E-2</v>
       </c>
@@ -20374,7 +20389,7 @@
         <v>1.271E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39">
       <c r="A35" s="25">
         <v>1.1586000000000001E-2</v>
       </c>
@@ -20493,7 +20508,7 @@
         <v>1.6000000000000001E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39">
       <c r="A36" s="25">
         <v>1.2154999999999999E-2</v>
       </c>
@@ -20612,7 +20627,7 @@
         <v>-1.2300000000000001E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39">
       <c r="A37" s="25">
         <v>1.2125E-2</v>
       </c>
@@ -20731,7 +20746,7 @@
         <v>9.7999999999999997E-5</v>
       </c>
     </row>
-    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39">
       <c r="A38" s="25">
         <v>1.2177E-2</v>
       </c>
@@ -20850,7 +20865,7 @@
         <v>7.94E-4</v>
       </c>
     </row>
-    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39">
       <c r="A39" s="25">
         <v>1.1487000000000001E-2</v>
       </c>
@@ -20969,7 +20984,7 @@
         <v>1.1900000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39">
       <c r="A40" s="25">
         <v>1.2144E-2</v>
       </c>
@@ -21088,7 +21103,7 @@
         <v>4.4499999999999997E-4</v>
       </c>
     </row>
-    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39">
       <c r="A41" s="25">
         <v>1.3206000000000001E-2</v>
       </c>
@@ -21207,7 +21222,7 @@
         <v>-8.7299999999999997E-4</v>
       </c>
     </row>
-    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39">
       <c r="A42" s="25">
         <v>1.4567E-2</v>
       </c>
@@ -21326,7 +21341,7 @@
         <v>-2.1749999999999999E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39">
       <c r="A43" s="25">
         <v>1.5851000000000001E-2</v>
       </c>
@@ -21445,7 +21460,7 @@
         <v>-3.0730000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39">
       <c r="A44" s="25">
         <v>1.6566000000000001E-2</v>
       </c>
@@ -21564,7 +21579,7 @@
         <v>-3.055E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39">
       <c r="A45" s="25">
         <v>1.2205000000000001E-2</v>
       </c>
@@ -21683,7 +21698,7 @@
         <v>-1.9849999999999998E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39">
       <c r="A46" s="25">
         <v>1.1498E-2</v>
       </c>
@@ -21802,7 +21817,7 @@
         <v>-1.047E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39">
       <c r="A47" s="25">
         <v>1.0806E-2</v>
       </c>
@@ -21921,7 +21936,7 @@
         <v>-5.2099999999999998E-4</v>
       </c>
     </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39">
       <c r="A48" s="25">
         <v>1.0401000000000001E-2</v>
       </c>
@@ -22040,7 +22055,7 @@
         <v>-7.36E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39">
       <c r="A49" s="25">
         <v>1.0942E-2</v>
       </c>
@@ -22159,7 +22174,7 @@
         <v>-1.6639999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39">
       <c r="A50" s="25">
         <v>1.1664000000000001E-2</v>
       </c>
@@ -22278,7 +22293,7 @@
         <v>-2.627E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:39">
       <c r="A51" s="25">
         <v>1.2312999999999999E-2</v>
       </c>
@@ -22397,7 +22412,7 @@
         <v>-3.1719999999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39">
       <c r="A52" s="25">
         <v>1.2456999999999999E-2</v>
       </c>
@@ -22516,7 +22531,7 @@
         <v>-2.9260000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39">
       <c r="A53" s="25">
         <v>1.2045999999999999E-2</v>
       </c>
@@ -22635,7 +22650,7 @@
         <v>-2.2109999999999999E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39">
       <c r="A54" s="25">
         <v>1.0963000000000001E-2</v>
       </c>
@@ -22754,7 +22769,7 @@
         <v>-1.176E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39">
       <c r="A55" s="25">
         <v>1.0317E-2</v>
       </c>
@@ -22873,7 +22888,7 @@
         <v>-4.9700000000000005E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39">
       <c r="A56" s="25">
         <v>9.8410000000000008E-3</v>
       </c>
@@ -22992,7 +23007,7 @@
         <v>-4.4099999999999999E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39">
       <c r="A57" s="25">
         <v>9.8060000000000005E-3</v>
       </c>
@@ -23111,7 +23126,7 @@
         <v>-1.0499999999999999E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39">
       <c r="A58" s="25">
         <v>1.0303E-2</v>
       </c>
@@ -23230,7 +23245,7 @@
         <v>-1.9530000000000001E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39">
       <c r="A59" s="25">
         <v>1.0918000000000001E-2</v>
       </c>
@@ -23349,7 +23364,7 @@
         <v>-2.8029999999999999E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39">
       <c r="A60" s="25">
         <v>1.1409000000000001E-2</v>
       </c>
@@ -23468,7 +23483,7 @@
         <v>-3.2339999999999999E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39">
       <c r="A61" s="25">
         <v>1.1468000000000001E-2</v>
       </c>
@@ -23587,7 +23602,7 @@
         <v>-3.1159999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39">
       <c r="A62" s="25">
         <v>1.1023E-2</v>
       </c>
@@ -23706,7 +23721,7 @@
         <v>-2.4650000000000002E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39">
       <c r="A63" s="25">
         <v>1.0685E-2</v>
       </c>
@@ -23825,7 +23840,7 @@
         <v>-1.5579999999999999E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39">
       <c r="A64" s="25">
         <v>9.8490000000000001E-3</v>
       </c>
@@ -23944,7 +23959,7 @@
         <v>-7.9699999999999997E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39">
       <c r="A65" s="25">
         <v>9.3880000000000005E-3</v>
       </c>
@@ -24063,7 +24078,7 @@
         <v>-2.7099999999999997E-4</v>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39">
       <c r="A66" s="25">
         <v>9.1420000000000008E-3</v>
       </c>
@@ -24182,7 +24197,7 @@
         <v>-3.8200000000000002E-4</v>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39">
       <c r="A67" s="25">
         <v>9.5250000000000005E-3</v>
       </c>
@@ -24301,7 +24316,7 @@
         <v>-1.0039999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39">
       <c r="A68" s="25">
         <v>1.0286E-2</v>
       </c>
@@ -24420,7 +24435,7 @@
         <v>-1.8240000000000001E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39">
       <c r="A69" s="25">
         <v>1.1141E-2</v>
       </c>
@@ -24539,7 +24554,7 @@
         <v>-2.996E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39">
       <c r="A70" s="25">
         <v>1.2522E-2</v>
       </c>
@@ -24658,7 +24673,7 @@
         <v>-3.9329999999999999E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39">
       <c r="A71" s="25">
         <v>1.3295E-2</v>
       </c>
@@ -24777,7 +24792,7 @@
         <v>-4.4400000000000004E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39">
       <c r="A72" s="25">
         <v>1.3893000000000001E-2</v>
       </c>
@@ -24896,7 +24911,7 @@
         <v>-4.9319999999999998E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39">
       <c r="A73" s="25">
         <v>1.4447E-2</v>
       </c>
@@ -25015,7 +25030,7 @@
         <v>-4.7320000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39">
       <c r="A74" s="25">
         <v>1.4303E-2</v>
       </c>
@@ -25134,7 +25149,7 @@
         <v>-4.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39">
       <c r="A75" s="25">
         <v>1.4043999999999999E-2</v>
       </c>
@@ -25253,7 +25268,7 @@
         <v>-3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39">
       <c r="A76" s="25">
         <v>1.3542E-2</v>
       </c>
@@ -25372,7 +25387,7 @@
         <v>-3.2629999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39">
       <c r="A77" s="25">
         <v>1.2692E-2</v>
       </c>
@@ -25491,7 +25506,7 @@
         <v>-2.8670000000000002E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39">
       <c r="A78" s="25">
         <v>1.2685999999999999E-2</v>
       </c>
@@ -25610,7 +25625,7 @@
         <v>-2.7139999999999998E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39">
       <c r="A79" s="25">
         <v>1.2317E-2</v>
       </c>
@@ -25729,7 +25744,7 @@
         <v>-2.5370000000000002E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39">
       <c r="A80" s="25">
         <v>1.1916E-2</v>
       </c>
@@ -25848,17 +25863,22 @@
         <v>-2.8709999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1">
       <c r="A81" s="7"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1">
       <c r="A82" s="7"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1">
       <c r="A83" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -25870,9 +25890,9 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1">
         <v>-1.217E-3</v>
       </c>
@@ -25988,7 +26008,7 @@
         <v>5.9250999999999998E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2">
         <v>-1.6122999999999998E-2</v>
       </c>
@@ -26104,7 +26124,7 @@
         <v>5.2925E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3">
         <v>-2.96E-3</v>
       </c>
@@ -26220,7 +26240,7 @@
         <v>3.1683999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4">
         <v>2.1277999999999998E-2</v>
       </c>
@@ -26336,7 +26356,7 @@
         <v>1.0460000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5">
         <v>3.9567999999999999E-2</v>
       </c>
@@ -26452,7 +26472,7 @@
         <v>-6.4720000000000003E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6">
         <v>5.2198000000000001E-2</v>
       </c>
@@ -26568,7 +26588,7 @@
         <v>-1.9453000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7">
         <v>6.0463000000000003E-2</v>
       </c>
@@ -26684,7 +26704,7 @@
         <v>-2.5121999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8">
         <v>5.9880999999999997E-2</v>
       </c>
@@ -26800,7 +26820,7 @@
         <v>-2.7699999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9">
         <v>5.8949000000000001E-2</v>
       </c>
@@ -26916,7 +26936,7 @@
         <v>-2.793E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10">
         <v>5.6152000000000001E-2</v>
       </c>
@@ -27032,7 +27052,7 @@
         <v>-2.6713000000000001E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11">
         <v>5.1274E-2</v>
       </c>
@@ -27148,7 +27168,7 @@
         <v>-2.5260000000000001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12">
         <v>4.9993000000000003E-2</v>
       </c>
@@ -27264,7 +27284,7 @@
         <v>-2.4146000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13">
         <v>4.6747999999999998E-2</v>
       </c>
@@ -27380,7 +27400,7 @@
         <v>-2.2589000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14">
         <v>4.5406000000000002E-2</v>
       </c>
@@ -27496,7 +27516,7 @@
         <v>-2.1475000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15">
         <v>4.4385000000000001E-2</v>
       </c>
@@ -27612,7 +27632,7 @@
         <v>-2.0431999999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16">
         <v>4.2183999999999999E-2</v>
       </c>
@@ -27728,7 +27748,7 @@
         <v>-1.9682999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38">
       <c r="A17">
         <v>4.0542000000000002E-2</v>
       </c>
@@ -27844,7 +27864,7 @@
         <v>-1.8891000000000002E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18">
         <v>3.959E-2</v>
       </c>
@@ -27960,7 +27980,7 @@
         <v>-1.8186999999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>3.7962000000000003E-2</v>
       </c>
@@ -28076,7 +28096,7 @@
         <v>-1.7673999999999999E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>3.7345000000000003E-2</v>
       </c>
@@ -28192,7 +28212,7 @@
         <v>-1.7127E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>3.5869999999999999E-2</v>
       </c>
@@ -28308,7 +28328,7 @@
         <v>-1.6677000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>3.5033000000000002E-2</v>
       </c>
@@ -28424,7 +28444,7 @@
         <v>-1.6188000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>3.3671E-2</v>
       </c>
@@ -28540,7 +28560,7 @@
         <v>-1.5469E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>3.3402000000000001E-2</v>
       </c>
@@ -28656,7 +28676,7 @@
         <v>-1.524E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>3.2177999999999998E-2</v>
       </c>
@@ -28772,7 +28792,7 @@
         <v>-1.4589E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>3.1132E-2</v>
       </c>
@@ -28888,7 +28908,7 @@
         <v>-1.3883E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27">
         <v>3.0834E-2</v>
       </c>
@@ -29004,7 +29024,7 @@
         <v>-1.3186E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28">
         <v>2.9805000000000002E-2</v>
       </c>
@@ -29120,7 +29140,7 @@
         <v>-1.2496E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29">
         <v>2.9288000000000002E-2</v>
       </c>
@@ -29236,7 +29256,7 @@
         <v>-1.1686E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30">
         <v>2.8648E-2</v>
       </c>
@@ -29352,7 +29372,7 @@
         <v>-1.0984000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31">
         <v>2.7969999999999998E-2</v>
       </c>
@@ -29468,7 +29488,7 @@
         <v>-1.0167000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32">
         <v>2.7269000000000002E-2</v>
       </c>
@@ -29584,7 +29604,7 @@
         <v>-9.4359999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33">
         <v>2.6849999999999999E-2</v>
       </c>
@@ -29700,7 +29720,7 @@
         <v>-8.6689999999999996E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34">
         <v>2.6512000000000001E-2</v>
       </c>
@@ -29816,7 +29836,7 @@
         <v>-8.201E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35">
         <v>2.5888999999999999E-2</v>
       </c>
@@ -29932,7 +29952,7 @@
         <v>-7.5820000000000002E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36">
         <v>2.5593000000000001E-2</v>
       </c>
@@ -30048,7 +30068,7 @@
         <v>-7.1459999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -30164,7 +30184,7 @@
         <v>-6.8199999999999997E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38">
         <v>2.4955999999999999E-2</v>
       </c>
@@ -30280,7 +30300,7 @@
         <v>-6.5339999999999999E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39">
         <v>2.4978E-2</v>
       </c>
@@ -30396,7 +30416,7 @@
         <v>-6.4850000000000003E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40">
         <v>2.4989000000000001E-2</v>
       </c>
@@ -30512,7 +30532,7 @@
         <v>-6.3990000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41">
         <v>2.4895E-2</v>
       </c>
@@ -30628,7 +30648,7 @@
         <v>-6.4419999999999998E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42">
         <v>2.4344000000000001E-2</v>
       </c>
@@ -30744,7 +30764,7 @@
         <v>-6.489E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43">
         <v>2.2498000000000001E-2</v>
       </c>
@@ -30860,7 +30880,7 @@
         <v>-8.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44">
         <v>2.2270000000000002E-2</v>
       </c>
@@ -30976,7 +30996,7 @@
         <v>-7.9749999999999995E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45">
         <v>2.1975999999999999E-2</v>
       </c>
@@ -31092,7 +31112,7 @@
         <v>-7.6290000000000004E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46">
         <v>2.1724E-2</v>
       </c>
@@ -31208,7 +31228,7 @@
         <v>-7.3439999999999998E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47">
         <v>2.1316000000000002E-2</v>
       </c>
@@ -31324,7 +31344,7 @@
         <v>-6.9160000000000003E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48">
         <v>2.0830999999999999E-2</v>
       </c>
@@ -31440,7 +31460,7 @@
         <v>-6.5890000000000002E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38">
       <c r="A49">
         <v>2.0586E-2</v>
       </c>
@@ -31556,7 +31576,7 @@
         <v>-6.0029999999999997E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50">
         <v>2.0147000000000002E-2</v>
       </c>
@@ -31672,7 +31692,7 @@
         <v>-5.8780000000000004E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51">
         <v>1.9605999999999998E-2</v>
       </c>
@@ -31788,7 +31808,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52">
         <v>1.9136E-2</v>
       </c>
@@ -31904,7 +31924,7 @@
         <v>-5.2030000000000002E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53">
         <v>1.8865E-2</v>
       </c>
@@ -32020,7 +32040,7 @@
         <v>-5.1460000000000004E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54">
         <v>1.8439000000000001E-2</v>
       </c>
@@ -32136,7 +32156,7 @@
         <v>-5.0990000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55">
         <v>1.8269000000000001E-2</v>
       </c>
@@ -32252,7 +32272,7 @@
         <v>-5.0689999999999997E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56">
         <v>1.8076999999999999E-2</v>
       </c>
@@ -32368,7 +32388,7 @@
         <v>-5.1700000000000001E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57">
         <v>1.7874000000000001E-2</v>
       </c>
@@ -32484,7 +32504,7 @@
         <v>-5.2430000000000003E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38">
       <c r="A58">
         <v>1.7760999999999999E-2</v>
       </c>
@@ -32600,7 +32620,7 @@
         <v>-5.2500000000000003E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38">
       <c r="A59">
         <v>1.7892000000000002E-2</v>
       </c>
@@ -32716,7 +32736,7 @@
         <v>-5.535E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38">
       <c r="A60">
         <v>1.7656999999999999E-2</v>
       </c>
@@ -32832,7 +32852,7 @@
         <v>-5.5599999999999998E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38">
       <c r="A61">
         <v>1.7566999999999999E-2</v>
       </c>
@@ -32948,7 +32968,7 @@
         <v>-5.4289999999999998E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="A62">
         <v>1.7226000000000002E-2</v>
       </c>
@@ -33064,7 +33084,7 @@
         <v>-5.6109999999999997E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="A63">
         <v>1.7124E-2</v>
       </c>
@@ -33180,7 +33200,7 @@
         <v>-5.5909999999999996E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64">
         <v>1.7017000000000001E-2</v>
       </c>
@@ -33296,7 +33316,7 @@
         <v>-5.7629999999999999E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65">
         <v>1.6993000000000001E-2</v>
       </c>
@@ -33412,7 +33432,7 @@
         <v>-5.7260000000000002E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66">
         <v>1.6854000000000001E-2</v>
       </c>
@@ -33528,7 +33548,7 @@
         <v>-5.7409999999999996E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38">
       <c r="A67">
         <v>1.6847000000000001E-2</v>
       </c>
@@ -33644,7 +33664,7 @@
         <v>-5.6940000000000003E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38">
       <c r="A68">
         <v>1.6865000000000002E-2</v>
       </c>
@@ -33760,7 +33780,7 @@
         <v>-5.6690000000000004E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69">
         <v>1.6999E-2</v>
       </c>
@@ -33876,7 +33896,7 @@
         <v>-5.5180000000000003E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70">
         <v>1.6573000000000001E-2</v>
       </c>
@@ -33992,7 +34012,7 @@
         <v>-5.3369999999999997E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38">
       <c r="A71">
         <v>1.6441000000000001E-2</v>
       </c>
@@ -34108,7 +34128,7 @@
         <v>-5.1720000000000004E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38">
       <c r="A72">
         <v>1.6501999999999999E-2</v>
       </c>
@@ -34224,7 +34244,7 @@
         <v>-4.9969999999999997E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="A73">
         <v>1.6566000000000001E-2</v>
       </c>
@@ -34340,7 +34360,7 @@
         <v>-4.8919999999999996E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="A74">
         <v>1.6815E-2</v>
       </c>
@@ -34456,7 +34476,7 @@
         <v>-4.679E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="A75">
         <v>1.6834999999999999E-2</v>
       </c>
@@ -34572,7 +34592,7 @@
         <v>-4.4840000000000001E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38">
       <c r="A76">
         <v>1.6635E-2</v>
       </c>
@@ -34688,7 +34708,7 @@
         <v>-4.2709999999999996E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38">
       <c r="A77">
         <v>1.6372999999999999E-2</v>
       </c>
@@ -34804,7 +34824,7 @@
         <v>-4.0819999999999997E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38">
       <c r="A78">
         <v>1.6570999999999999E-2</v>
       </c>
@@ -34920,7 +34940,7 @@
         <v>-4.0020000000000003E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38">
       <c r="A79">
         <v>1.6389000000000001E-2</v>
       </c>
@@ -35036,7 +35056,7 @@
         <v>-3.8790000000000001E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38">
       <c r="A80">
         <v>1.6128E-2</v>
       </c>
@@ -35152,7 +35172,7 @@
         <v>-3.8040000000000001E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38">
       <c r="A81">
         <v>1.6001999999999999E-2</v>
       </c>
@@ -35268,7 +35288,7 @@
         <v>-3.7650000000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38">
       <c r="A82">
         <v>1.6177E-2</v>
       </c>
@@ -35384,7 +35404,7 @@
         <v>-3.8379999999999998E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38">
       <c r="A83">
         <v>1.6069E-2</v>
       </c>
@@ -35500,7 +35520,7 @@
         <v>-3.836E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38">
       <c r="A84">
         <v>1.6045E-2</v>
       </c>
@@ -35616,7 +35636,7 @@
         <v>-4.0330000000000001E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38">
       <c r="A85">
         <v>1.6611000000000001E-2</v>
       </c>
@@ -35734,6 +35754,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -35745,9 +35770,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1">
         <v>4.4850000000000001E-2</v>
       </c>
@@ -35863,7 +35888,7 @@
         <v>-4.3519000000000002E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="A2">
         <v>3.9183999999999997E-2</v>
       </c>
@@ -35979,7 +36004,7 @@
         <v>-3.7317000000000003E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="A3">
         <v>2.9572999999999999E-2</v>
       </c>
@@ -36095,7 +36120,7 @@
         <v>-3.3651E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="A4">
         <v>1.9889E-2</v>
       </c>
@@ -36211,7 +36236,7 @@
         <v>-3.2308000000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="A5">
         <v>1.8782E-2</v>
       </c>
@@ -36327,7 +36352,7 @@
         <v>-3.0528E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="A6">
         <v>1.336E-2</v>
       </c>
@@ -36443,7 +36468,7 @@
         <v>-2.7786000000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="A7">
         <v>8.3269999999999993E-3</v>
       </c>
@@ -36559,7 +36584,7 @@
         <v>-2.5936000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="A8">
         <v>8.2279999999999992E-3</v>
       </c>
@@ -36675,7 +36700,7 @@
         <v>-2.4084999999999999E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="A9">
         <v>7.0349999999999996E-3</v>
       </c>
@@ -36791,7 +36816,7 @@
         <v>-2.2527999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="A10">
         <v>5.7910000000000001E-3</v>
       </c>
@@ -36907,7 +36932,7 @@
         <v>-2.2658999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="A11">
         <v>5.5459999999999997E-3</v>
       </c>
@@ -37023,7 +37048,7 @@
         <v>-2.1316000000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="A12">
         <v>4.3299999999999996E-3</v>
       </c>
@@ -37139,7 +37164,7 @@
         <v>-2.027E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="A13">
         <v>3.1689999999999999E-3</v>
       </c>
@@ -37255,7 +37280,7 @@
         <v>-1.9577000000000001E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="A14">
         <v>4.045E-3</v>
       </c>
@@ -37371,7 +37396,7 @@
         <v>-1.7666000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="A15">
         <v>1.2620000000000001E-3</v>
       </c>
@@ -37487,7 +37512,7 @@
         <v>-1.7545000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="A16">
         <v>9.5799999999999998E-4</v>
       </c>
@@ -37603,7 +37628,7 @@
         <v>-1.6750999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38">
       <c r="A17">
         <v>-3.8099999999999999E-4</v>
       </c>
@@ -37719,7 +37744,7 @@
         <v>-1.5461000000000001E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38">
       <c r="A18">
         <v>-2.052E-3</v>
       </c>
@@ -37835,7 +37860,7 @@
         <v>-1.5084E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38">
       <c r="A19">
         <v>-2.333E-3</v>
       </c>
@@ -37951,7 +37976,7 @@
         <v>-1.4002000000000001E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38">
       <c r="A20">
         <v>-3.1670000000000001E-3</v>
       </c>
@@ -38067,7 +38092,7 @@
         <v>-1.2987E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38">
       <c r="A21">
         <v>-4.2989999999999999E-3</v>
       </c>
@@ -38183,7 +38208,7 @@
         <v>-1.2781000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38">
       <c r="A22">
         <v>-2.7460000000000002E-3</v>
       </c>
@@ -38299,7 +38324,7 @@
         <v>-1.1978000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38">
       <c r="A23">
         <v>-4.0660000000000002E-3</v>
       </c>
@@ -38415,7 +38440,7 @@
         <v>-1.1528999999999999E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38">
       <c r="A24">
         <v>-3.4299999999999999E-3</v>
       </c>
@@ -38531,7 +38556,7 @@
         <v>-1.0923E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38">
       <c r="A25">
         <v>-2.9870000000000001E-3</v>
       </c>
@@ -38647,7 +38672,7 @@
         <v>-1.0501999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38">
       <c r="A26">
         <v>-3.3969999999999998E-3</v>
       </c>
@@ -38763,7 +38788,7 @@
         <v>-1.0293999999999999E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38">
       <c r="A27">
         <v>-2.7100000000000002E-3</v>
       </c>
@@ -38879,7 +38904,7 @@
         <v>-9.8399999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38">
       <c r="A28">
         <v>-2.5569999999999998E-3</v>
       </c>
@@ -38995,7 +39020,7 @@
         <v>-9.3860000000000002E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38">
       <c r="A29">
         <v>-2.0509999999999999E-3</v>
       </c>
@@ -39111,7 +39136,7 @@
         <v>-9.5239999999999995E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38">
       <c r="A30">
         <v>-1.1529999999999999E-3</v>
       </c>
@@ -39227,7 +39252,7 @@
         <v>-9.3489999999999997E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38">
       <c r="A31">
         <v>-7.0899999999999999E-4</v>
       </c>
@@ -39343,7 +39368,7 @@
         <v>-9.1979999999999996E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38">
       <c r="A32">
         <v>-3.3500000000000001E-4</v>
       </c>
@@ -39459,7 +39484,7 @@
         <v>-9.0749999999999997E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38">
       <c r="A33">
         <v>3.1700000000000001E-4</v>
       </c>
@@ -39575,7 +39600,7 @@
         <v>-9.077E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38">
       <c r="A34">
         <v>3.68E-4</v>
       </c>
@@ -39691,7 +39716,7 @@
         <v>-8.9750000000000003E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38">
       <c r="A35">
         <v>7.3999999999999999E-4</v>
       </c>
@@ -39807,7 +39832,7 @@
         <v>-8.9180000000000006E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38">
       <c r="A36">
         <v>3.8999999999999999E-4</v>
       </c>
@@ -39923,7 +39948,7 @@
         <v>-8.6619999999999996E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38">
       <c r="A37">
         <v>-3.77E-4</v>
       </c>
@@ -40039,7 +40064,7 @@
         <v>-8.6339999999999993E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38">
       <c r="A38">
         <v>-5.5199999999999997E-4</v>
       </c>
@@ -40155,7 +40180,7 @@
         <v>-8.4720000000000004E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38">
       <c r="A39">
         <v>-1.413E-3</v>
       </c>
@@ -40271,7 +40296,7 @@
         <v>-8.1460000000000005E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38">
       <c r="A40">
         <v>-1.8979999999999999E-3</v>
       </c>
@@ -40387,7 +40412,7 @@
         <v>-8.1770000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38">
       <c r="A41">
         <v>-2.1819999999999999E-3</v>
       </c>
@@ -40503,7 +40528,7 @@
         <v>-7.9459999999999999E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38">
       <c r="A42">
         <v>-2.82E-3</v>
       </c>
@@ -40619,7 +40644,7 @@
         <v>-7.8810000000000009E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38">
       <c r="A43">
         <v>-5.8450000000000004E-3</v>
       </c>
@@ -40735,7 +40760,7 @@
         <v>-6.7990000000000004E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38">
       <c r="A44">
         <v>-6.1799999999999997E-3</v>
       </c>
@@ -40851,7 +40876,7 @@
         <v>-6.7070000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38">
       <c r="A45">
         <v>-6.5389999999999997E-3</v>
       </c>
@@ -40967,7 +40992,7 @@
         <v>-6.6930000000000002E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38">
       <c r="A46">
         <v>-6.3860000000000002E-3</v>
       </c>
@@ -41083,7 +41108,7 @@
         <v>-6.8110000000000002E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38">
       <c r="A47">
         <v>-6.234E-3</v>
       </c>
@@ -41199,7 +41224,7 @@
         <v>-6.8729999999999998E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38">
       <c r="A48">
         <v>-5.921E-3</v>
       </c>
@@ -41315,7 +41340,7 @@
         <v>-7.0410000000000004E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38">
       <c r="A49">
         <v>-5.2649999999999997E-3</v>
       </c>
@@ -41431,7 +41456,7 @@
         <v>-7.2529999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38">
       <c r="A50">
         <v>-4.6709999999999998E-3</v>
       </c>
@@ -41547,7 +41572,7 @@
         <v>-7.3249999999999999E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38">
       <c r="A51">
         <v>-3.9139999999999999E-3</v>
       </c>
@@ -41663,7 +41688,7 @@
         <v>-7.4019999999999997E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38">
       <c r="A52">
         <v>-3.3379999999999998E-3</v>
       </c>
@@ -41779,7 +41804,7 @@
         <v>-7.4590000000000004E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38">
       <c r="A53">
         <v>-2.8630000000000001E-3</v>
       </c>
@@ -41895,7 +41920,7 @@
         <v>-7.2329999999999998E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38">
       <c r="A54">
         <v>-2.5950000000000001E-3</v>
       </c>
@@ -42011,7 +42036,7 @@
         <v>-7.1900000000000002E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38">
       <c r="A55">
         <v>-2.2750000000000001E-3</v>
       </c>
@@ -42127,7 +42152,7 @@
         <v>-6.9519999999999998E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38">
       <c r="A56">
         <v>-1.8400000000000001E-3</v>
       </c>
@@ -42243,7 +42268,7 @@
         <v>-6.6689999999999996E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38">
       <c r="A57">
         <v>-1.9289999999999999E-3</v>
       </c>
@@ -42359,7 +42384,7 @@
         <v>-6.6299999999999996E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38">
       <c r="A58">
         <v>-2.0300000000000001E-3</v>
       </c>
@@ -42475,7 +42500,7 @@
         <v>-6.3080000000000002E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38">
       <c r="A59">
         <v>-2.0089999999999999E-3</v>
       </c>
@@ -42591,7 +42616,7 @@
         <v>-6.0219999999999996E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38">
       <c r="A60">
         <v>-2.2070000000000002E-3</v>
       </c>
@@ -42707,7 +42732,7 @@
         <v>-6.1789999999999996E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38">
       <c r="A61">
         <v>-1.639E-3</v>
       </c>
@@ -42823,7 +42848,7 @@
         <v>-5.9179999999999996E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38">
       <c r="A62">
         <v>-1.768E-3</v>
       </c>
@@ -42939,7 +42964,7 @@
         <v>-5.7629999999999999E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38">
       <c r="A63">
         <v>-2.0270000000000002E-3</v>
       </c>
@@ -43055,7 +43080,7 @@
         <v>-5.9030000000000003E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38">
       <c r="A64">
         <v>-1.542E-3</v>
       </c>
@@ -43171,7 +43196,7 @@
         <v>-5.6210000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38">
       <c r="A65">
         <v>-1.1839999999999999E-3</v>
       </c>
@@ -43287,7 +43312,7 @@
         <v>-5.4819999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38">
       <c r="A66">
         <v>-1.065E-3</v>
       </c>
@@ -43403,7 +43428,7 @@
         <v>-5.5630000000000002E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38">
       <c r="A67">
         <v>-1.1509999999999999E-3</v>
       </c>
@@ -43519,7 +43544,7 @@
         <v>-5.5539999999999999E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38">
       <c r="A68">
         <v>-7.7499999999999997E-4</v>
       </c>
@@ -43635,7 +43660,7 @@
         <v>-5.3239999999999997E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38">
       <c r="A69">
         <v>2.99E-4</v>
       </c>
@@ -43751,7 +43776,7 @@
         <v>-5.4510000000000001E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38">
       <c r="A70">
         <v>3.1799999999999998E-4</v>
       </c>
@@ -43867,7 +43892,7 @@
         <v>-5.901E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38">
       <c r="A71">
         <v>6.1399999999999996E-4</v>
       </c>
@@ -43983,7 +44008,7 @@
         <v>-5.7650000000000002E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38">
       <c r="A72">
         <v>1.869E-3</v>
       </c>
@@ -44099,7 +44124,7 @@
         <v>-5.6880000000000003E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38">
       <c r="A73">
         <v>1.691E-3</v>
       </c>
@@ -44215,7 +44240,7 @@
         <v>-6.13E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38">
       <c r="A74">
         <v>2.0119999999999999E-3</v>
       </c>
@@ -44331,7 +44356,7 @@
         <v>-6.3470000000000002E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38">
       <c r="A75">
         <v>2.8839999999999998E-3</v>
       </c>
@@ -44447,7 +44472,7 @@
         <v>-6.025E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38">
       <c r="A76">
         <v>3.0179999999999998E-3</v>
       </c>
@@ -44563,7 +44588,7 @@
         <v>-6.0769999999999999E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38">
       <c r="A77">
         <v>2.614E-3</v>
       </c>
@@ -44679,7 +44704,7 @@
         <v>-6.1279999999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38">
       <c r="A78">
         <v>2.6389999999999999E-3</v>
       </c>
@@ -44795,7 +44820,7 @@
         <v>-6.2789999999999999E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38">
       <c r="A79">
         <v>2.3890000000000001E-3</v>
       </c>
@@ -44911,7 +44936,7 @@
         <v>-6.3220000000000004E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38">
       <c r="A80">
         <v>2.418E-3</v>
       </c>
@@ -45027,7 +45052,7 @@
         <v>-5.6829999999999997E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38">
       <c r="A81">
         <v>1.5510000000000001E-3</v>
       </c>
@@ -45143,7 +45168,7 @@
         <v>-5.587E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38">
       <c r="A82">
         <v>1.6980000000000001E-3</v>
       </c>
@@ -45259,7 +45284,7 @@
         <v>-6.0070000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38">
       <c r="A83">
         <v>1.8799999999999999E-4</v>
       </c>
@@ -45375,7 +45400,7 @@
         <v>-5.9059999999999998E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38">
       <c r="A84">
         <v>-4.06E-4</v>
       </c>
@@ -45491,7 +45516,7 @@
         <v>-5.8310000000000002E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38">
       <c r="A85">
         <v>-1.366E-3</v>
       </c>
@@ -45609,5 +45634,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>